--- a/data/genius_Bushido_Demotape.xlsx
+++ b/data/genius_Bushido_Demotape.xlsx
@@ -444,9 +444,86 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Schlangen“][Intro]Ah, yeah, yeahYeah, ah, ahAh, pff, pffYes, yes, ah, heheheWas geht ab, Mann?Was geht?Yeah, yeahEs war heut echt ein toller TagYeah, ahaDas ist für all die FotzenWas geht ab bei euch[Part 1]Ey, ich dreh mich im Kreis, frage mich: Was geht abSehe: All die Leute um mich herum fucken mich abMann, wieso? Kommt doch mal klar und seid mal ehrlichWas wollt ihr von mir? Wollt ihr mich täuschen? Sowas läuft nichtIch scheiß auf euch, wenn es sein muss auch auf jedenStatt offen zu dissen hinter dem Rücken zu redenIch vertrage Kritik, doch wenn sie kommt, dann objektivDoch bei euch, ihr kleinen Spritzer, definitivPrimitiv, ignorant, euer wahres GesichtDass es mir etwas bedeutet, interessiert euch alle nichtIhr denkt, er ist besser, also zahlen ich's dir zurückUnd jetzt fickt ihr meinen Kopf, jeden Tag ein kleines StückEy, was soll das? Leute, waren wir nicht mal Freunde?Anis, mach die Augen auf, gestern ist nicht heuteJa, ich weiß, heute ist nicht morgen und nicht gesternDoch ich dachte, Freunde wär'n wie Brüder oder SchwesternJa, für dich, heute ist betrügen angesagtAnis, glaub mir, keiner kümmert sich, wenn du beklagstWas früher einmal war und niemals wieder sein wirdErwarte keine Liebe, sonst hast du dich geirrt
-[Bridge: Sample]Friends are snakes[Hook]Ob ihr mich wollt oder nicht, Alter, mir ist es egalIrgendwann hab ich's geschafft, hey, und dann hab ich die WahlUnd wenn ich wähle, weiß ich, wo meine Freunde warenUm euch werd' ich mich kümmern und den Rest werd' ich mir sparenOb ihr mich wollt oder nicht, Alter, mir ist es egalIrgendwann hab ich's geschafft, hey, und dann hab ich die WahlUnd wenn ich wähle, weiß ich, wo meine Freunde warenUm euch werd' ich mich kümmern und den Rest werd' ich mir sparen[Part 2]Bitte sag, was soll ich machen, wann wird meine Sonne scheinen?Werd' ich jemals Frieden finden oder wirst du es verneinen?Stimme, antworte mir, hör mir zu, gib mir ein ZeichenWo wartet meine Liebe, werd' ich sie je erreichen?Anis, stell mir keine Fragen, geh los und such die AntwortOder willst du lieber warten bis der Rest von dir verkorkst?Nein, doch wo soll ich hin? Zu viele Fallen sind gestelltUnd ich bin mir nicht mehr sicher, ob mein Wille lange hältWas zählt, ist dein Gewissen, gibt dir Kraft in deiner NachtDie Decke in der Kälte und das Schwert in deiner SchlachtDas Wasser, um zu kochen, gibt dir Macht und macht dich heißIst dein Ein und Alles, also nutz es, ich weißWenn du auf die anderen zählst, hast du verloren, bist naivFette Kohle, der Konsum, Junge, das ist lukrativSoziale Gesellschaft, jeder scheißt auf dein PrinzipMachst du einen kleinen Fehler glaub nicht, dass man dir vergibtAlso, was willst du hier? Scheiß auf den DreckPack die Sachen und hau ab, Mann, du weißt, sie sind whackKümmer dich um HipHop, denn das ist deine LeidenschaftWenn du weitermachst, dann hast du es geschafft
-[Bridge: Sample]Friends and snakes[Hook]Ob ihr mich wollt oder nicht, Alter, mir ist es egalIrgendwann hab ich's geschafft, hey, und dann hab ich die WahlUnd wenn ich wähle, weiß ich, wo meine Freunde warenUm euch werd' ich mich kümmern und den Rest werd' ich mir sparenOb ihr mich wollt oder nicht, Alter, mir ist es egalIrgendwann hab ich's geschafft, hey, und dann hab ich die WahlUnd wenn ich wähle, weiß ich, wo meine Freunde warenUm euch werd' ich mich kümmern und den Rest werd' ich mir sparen[Bridge: Sample]Friends and snakes[Outro]Hate, hate, hate, hate what they can't conquerStay true to the game, but the game ain't true to the MCMy-My-My My skin is thick (skin is thick)</t>
+          <t>[Songtext zu „Schlangen“]
+[Intro]
+Ah, yeah, yeah
+Yeah, ah, ah
+Ah, pff, pff
+Yes, yes, ah, hehehe
+Was geht ab, Mann?
+Was geht?
+Yeah, yeah
+Es war heut echt ein toller Tag
+Yeah, aha
+Das ist für all die Fotzen
+Was geht ab bei euch
+[Part 1]
+Ey, ich dreh mich im Kreis, frage mich: Was geht ab
+Sehe: All die Leute um mich herum fucken mich ab
+Mann, wieso? Kommt doch mal klar und seid mal ehrlich
+Was wollt ihr von mir? Wollt ihr mich täuschen? Sowas läuft nicht
+Ich scheiß auf euch, wenn es sein muss auch auf jeden
+Statt offen zu dissen hinter dem Rücken zu reden
+Ich vertrage Kritik, doch wenn sie kommt, dann objektiv
+Doch bei euch, ihr kleinen Spritzer, definitiv
+Primitiv, ignorant, euer wahres Gesicht
+Dass es mir etwas bedeutet, interessiert euch alle nicht
+Ihr denkt, er ist besser, also zahlen ich's dir zurück
+Und jetzt fickt ihr meinen Kopf, jeden Tag ein kleines Stück
+Ey, was soll das? Leute, waren wir nicht mal Freunde?
+Anis, mach die Augen auf, gestern ist nicht heute
+Ja, ich weiß, heute ist nicht morgen und nicht gestern
+Doch ich dachte, Freunde wär'n wie Brüder oder Schwestern
+Ja, für dich, heute ist betrügen angesagt
+Anis, glaub mir, keiner kümmert sich, wenn du beklagst
+Was früher einmal war und niemals wieder sein wird
+Erwarte keine Liebe, sonst hast du dich geirrt
+[Bridge: Sample]Friends are snakes
+[Hook]
+Ob ihr mich wollt oder nicht, Alter, mir ist es egal
+Irgendwann hab ich's geschafft, hey, und dann hab ich die Wahl
+Und wenn ich wähle, weiß ich, wo meine Freunde waren
+Um euch werd' ich mich kümmern und den Rest werd' ich mir sparen
+Ob ihr mich wollt oder nicht, Alter, mir ist es egal
+Irgendwann hab ich's geschafft, hey, und dann hab ich die Wahl
+Und wenn ich wähle, weiß ich, wo meine Freunde waren
+Um euch werd' ich mich kümmern und den Rest werd' ich mir sparen
+[Part 2]
+Bitte sag, was soll ich machen, wann wird meine Sonne scheinen?
+Werd' ich jemals Frieden finden oder wirst du es verneinen?
+Stimme, antworte mir, hör mir zu, gib mir ein Zeichen
+Wo wartet meine Liebe, werd' ich sie je erreichen?
+Anis, stell mir keine Fragen, geh los und such die Antwort
+Oder willst du lieber warten bis der Rest von dir verkorkst?
+Nein, doch wo soll ich hin? Zu viele Fallen sind gestellt
+Und ich bin mir nicht mehr sicher, ob mein Wille lange hält
+Was zählt, ist dein Gewissen, gibt dir Kraft in deiner Nacht
+Die Decke in der Kälte und das Schwert in deiner Schlacht
+Das Wasser, um zu kochen, gibt dir Macht und macht dich heiß
+Ist dein Ein und Alles, also nutz es, ich weiß
+Wenn du auf die anderen zählst, hast du verloren, bist naiv
+Fette Kohle, der Konsum, Junge, das ist lukrativ
+Soziale Gesellschaft, jeder scheißt auf dein Prinzip
+Machst du einen kleinen Fehler glaub nicht, dass man dir vergibt
+Also, was willst du hier? Scheiß auf den Dreck
+Pack die Sachen und hau ab, Mann, du weißt, sie sind whack
+Kümmer dich um HipHop, denn das ist deine Leidenschaft
+Wenn du weitermachst, dann hast du es geschafft
+[Bridge: Sample]Friends and snakes
+[Hook]
+Ob ihr mich wollt oder nicht, Alter, mir ist es egal
+Irgendwann hab ich's geschafft, hey, und dann hab ich die Wahl
+Und wenn ich wähle, weiß ich, wo meine Freunde waren
+Um euch werd' ich mich kümmern und den Rest werd' ich mir sparen
+Ob ihr mich wollt oder nicht, Alter, mir ist es egal
+Irgendwann hab ich's geschafft, hey, und dann hab ich die Wahl
+Und wenn ich wähle, weiß ich, wo meine Freunde waren
+Um euch werd' ich mich kümmern und den Rest werd' ich mir sparen
+[Bridge: Sample]Friends and snakes
+[Outro]
+Hate, hate, hate, hate what they can't conquer
+Stay true to the game, but the game ain't true to the MC
+My-My-My My skin is thick (skin is thick)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -488,9 +565,76 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1: Fabrice]Une histoire que l'on connaît, mon père n'avait pas d'monnaieLes temps m'en passent, j'ai dit que j'vais commencer à volerPas pour rigoler comme quelques mecs du quartierSavais jamais ce que je dis, j'étais resté les mains liéesJe dévais tout briser, en restant paralisé dans un monde trop accuséJ'trahisais le métier et lequels donc je maîtrisaitLe temps mais doucement, passons aux éclaircissementsLa vie n'est qu'un magazine rempli des alimentsT'as assez d'tune? Tu prends, t'en a pas tu rendsOn est une équipe, on agace toujours comme les flicsC'est ça nos vraies vies, nos opinions poétiquesJusqu'à la mort nous garderons nos lyrics[Part 2: Bushido]Kein Weg, kein Ziel aber wir werden überlebenWir kommen von unten seit sicher wir werden's euch gebenKein Scheiß, ich weiß was es heißt - UntergrundDenn alles, was ich euch sage, hat tiefen HintergundIch bewege mich zum Abgrund, stetig Schritt für SchrittJunge hast du kein Herz, dann komm lieber nicht mitDenn es gibt keine Gnade in meiner Realität, neinScheiß auf Schule, scheiß auf Abi, scheiß auf UniversitätWillst du lernen musst du leben, willst du wissen musst du gebenWillst du frei sein, dann musst du dich wieder streben gegenDie Meister der Manipulation, deine freie Entfaltung - reine Illusion
-[Hook: Bushido &amp; Fabrice](x2)Illusion, Illusion, Junge sag mir was du siehstTout est manipulé ici, y a rien de véritéDu lebst mit deinen Lügen, machen sie dich glücklich?Si tu veux vivre garçon, ouvres donc tes yeux[Part 3: Bushido]Wie gesagt, Illusion herrscht über eurem GeistSchaut nach oben dann seht ihr was über euren Köpfen kreistDie Lüge, der Geier auf der Suche nach AasZeigt das ihr noch lebt weil sonst glaubt mir man dann war's dasHinterhältig euer Wille wird verführtGibt ihr nicht Acht, dann wird er welken und verblühenWie eine Pflanze ohne Wasser, Körper ohne SeelenBesinnt eurer Kraft lasst euch nicht länger quälenSprengt eure Ketten, nie wieder SklaveHört meine Worte, glaubt mir was ich sageIch bin frei bezahlte meinen PreisNie wieder Zwänge, bin fertig mit dem ScheißBin mein eigener Meister, keine ImitationFuchs 030, die ManifestationDer Bedrohung der Gesellschaft weil wir sagen was wir sehenIch lass mich nicht verarschen, ich werd euch wiederstehenNehm die Wahrheit in den Mund, die ihr hört mit fetten BeatsIhr wisst wir haben's drauf, jeder hört's, jeder sieht'sIch stehe bis zum Tage, uns'rer NiederlageBerlin und Marseille, halten uns und euch, die Waage
-[Part 4: Fabrice]On est sur la bonne voie, on dit juste qu'on voitMême si parfois tu me dit, qu'on brise la loiMais ces des faits vécus pour moi, je m'prends pas pour un roiComme à l'école qui était, moi aussi, même si c'est difficile à y croireMais tout c'que j'apprenais, c'était juste un tout petit peu d'espoirPour me faire vivre, sans regarder dans un mirroirQui me laissent pas traîner, dans des illusionsJ'ai assez d'argumentsPour pendant que j'existe, j'veux faire sentir comme le ventMa personnalité, descend pas avec l'argentJ'vais pas brûler comme le soleilJ'préfère rester dans le sommetJ'suis pas pareil, j'veux pas qu'on me payeTu sais bien que je serais pris en, que les vrais sens du rienEt si je suis pas assez clair pour vous, vous comprendrez peut-êtreLe jour de mon deuilCar sour la vérité, moi, j'aurais toujours un œilMoi, j'aurais toujours un œil[Hook: Bushido &amp; Fabrice](x2)</t>
+          <t>[Part 1: Fabrice]
+Une histoire que l'on connaît, mon père n'avait pas d'monnaie
+Les temps m'en passent, j'ai dit que j'vais commencer à voler
+Pas pour rigoler comme quelques mecs du quartier
+Savais jamais ce que je dis, j'étais resté les mains liées
+Je dévais tout briser, en restant paralisé dans un monde trop accusé
+J'trahisais le métier et lequels donc je maîtrisait
+Le temps mais doucement, passons aux éclaircissements
+La vie n'est qu'un magazine rempli des aliments
+T'as assez d'tune? Tu prends, t'en a pas tu rends
+On est une équipe, on agace toujours comme les flics
+C'est ça nos vraies vies, nos opinions poétiques
+Jusqu'à la mort nous garderons nos lyrics
+[Part 2: Bushido]
+Kein Weg, kein Ziel aber wir werden überleben
+Wir kommen von unten seit sicher wir werden's euch geben
+Kein Scheiß, ich weiß was es heißt -Untergrund
+Denn alles, was ich euch sage, hat tiefen Hintergund
+Ich bewege mich zum Abgrund, stetig Schritt für Schritt
+Junge hast du kein Herz, dann komm lieber nicht mit
+Denn es gibt keine Gnade in meiner Realität,nein
+Scheiß auf Schule, scheiß auf Abi, scheiß auf Universität
+Willst du lernen musst du leben, willst du wissen musst du geben
+Willst du frei sein, dann musst du dich wieder streben gegen
+Die Meister der Manipulation, deine freie Entfaltung - reine Illusion
+[Hook: Bushido &amp;Fabrice](x2)
+Illusion,Illusion, Junge sag mir was du siehst
+Tout est manipulé ici, y a rien de vérité
+Du lebst mit deinen Lügen, machen sie dich glücklich?
+Si tu veux vivre garçon, ouvres donc tes yeux
+[Part 3: Bushido]
+Wie gesagt, Illusion herrscht über eurem Geist
+Schaut nach oben dann seht ihr was über euren Köpfen kreist
+Die Lüge, der Geier auf der Suche nach Aas
+Zeigt das ihr noch lebt weil sonst glaubt mir man dann war's das
+Hinterhältig euer Wille wird verführt
+Gibt ihr nicht Acht, dann wird er welken und verblühen
+Wie eine Pflanze ohne Wasser, Körper ohne Seelen
+Besinnt eurer Kraft lasst euch nicht länger quälen
+Sprengt eure Ketten, nie wieder Sklave
+Hört meine Worte, glaubt mir was ich sage
+Ich bin frei bezahlte meinen Preis
+Nie wieder Zwänge, bin fertig mit dem Scheiß
+Bin mein eigener Meister, keine Imitation
+Fuchs 030, die ManifestationDer Bedrohung der Gesellschaftweil wir sagen was wir sehen
+Ich lass mich nicht verarschen, ich werd euch wiederstehen
+Nehm die Wahrheit in den Mund, die ihr hört mit fetten Beats
+Ihr wisst wir haben's drauf, jeder hört's, jeder sieht's
+Ich stehe bis zum Tage, uns'rer Niederlage
+Berlin und Marseille, halten uns und euch, die Waage
+[Part 4: Fabrice]
+On est sur la bonne voie, on dit juste qu'on voit
+Même si parfois tu me dit, qu'on brise la loi
+Mais ces des faits vécus pour moi, je m'prends pas pour un roi
+Comme à l'école qui était, moi aussi, même si c'est difficile à y croire
+Mais tout c'que j'apprenais, c'était juste un tout petit peu d'espoir
+Pour me faire vivre, sans regarder dans un mirroir
+Qui me laissent pas traîner, dans des illusions
+J'ai assez d'arguments
+Pour pendant que j'existe, j'veux faire sentir comme le vent
+Ma personnalité, descend pas avec l'argent
+J'vais pas brûler comme le soleil
+J'préfère rester dans le sommet
+J'suis pas pareil, j'veux pas qu'on me paye
+Tu sais bien que je serais pris en, que les vrais sens du rien
+Et si je suis pas assez clair pour vous, vous comprendrez peut-être
+Le jour de mon deuil
+Car sour la vérité, moi, j'aurais toujours un œil
+Moi, j'aurais toujours un œil
+[Hook: Bushido &amp; Fabrice](x2)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,7 +676,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Intro:]Und jetzt zu den 10 geboten:Du sollst deinen anführer nicht verratenDu sollst nicht den besitz deines nächsten begehrenDu sollst nicht stehlenDu sollst nicht glücksspiel treibenDu sollst keine heimtücke übenLiebster, die menschen hier sind nicht freundlich zu ihnen, warum kehren wir nicht zurück, ich kehre nicht wieder zurück, ich werde hier bleiben doch eines tages zeig ich es ihnenGanz egal wie du heißt, ich will wissen, ob du kämpfen kannst[Strophe I:]Zwei mann haltet euch fest, ey wir wünschen euch die pest bushido und vader wir beide kämpfen gegen den rest der andere für den einen und der eine für den anderen, ecken an egal, in welche richtung, wir gehen man typen die uns begegnen tun das zeitliche segnen, nach mainz westberlin, hip hop ist unsere begebenheit überlegen erst, was wir sagen, überlegen, wie jeder labert, das ist mein standard, das ist fakt und keine frage klar wär man weiche rapper direkt vor ort man bei euch ist's dunkel im hirn, atze mach mal 's licht an, zappenduster, schuster bleib bei deinen leisten, es kippt zusammen, burn wie die meisten tag team killer team, wir kämpfen wie killerbienen schlechte rapper wischen wir weg, wie mit terpentin, sind aspirin für jeden schädel, gold wert für jedes mädel, macht, was ihr wollt, wir sind am längeren hebel kreuzen klingen egal, ob lichtschwert oder catternei, egal, wo ihr seid, geben das feuer rein wir kommen auf den punkt, unsere flows sind präzise, hip hop ist unser leben, für euch ist es nur 'ne spielwiese um zu cashen und eure scheiße raus zudrücken ihr könnt sagen, was ihr wollt, wir werden uns niemals drücken aus mainz sind wir direkt aus der westlichen kammer bushido und vader zu zweit sind wir der hammer sagen euch, was los ist, man wir geben euch die dosis wir texten uns für euch, wie die gebote von moses sind besser als die meisten, deshalb können wir's uns leisten, das maul aufzureißen, weil wir heut auf jeden scheißen[Bridge:]Ganz genau, wir scheißen draufIhr seid schwach und wir besser[Strophe II:]Liefern euch qualität und lügen ans messer grund vader und bushido, das team wie im klick wir kämpfen gemeinsam und der rest wird gefickt sag mir, warum ist hip hop zur zeit so krass in mode überall whycansees, cashen sich fast zu tode denn, egal was geht, der streifen über weite hosen das ist euer prinzip, homo beats kräftig posen kein respekt, kein plan, doch trotzdem voll gefressen, alter, wir sind der brüller mit uns kann sich keiner messen, stecken jeden in die tasche, wie diebe ihre beute scheiß auf morgen, scheiß auf gestern, heute ist heute, junge, wie solln wir leben das verdammte system macht uns zum außenseiter und für euch zum problem, was soll der scheiß wir sind fat baby, das ist fakt, wir wissen, was wir wollen und wir wollen keinen pakt mit dem teufel zu viele schlangen illusion der lügner erntet reichtum, der gute den hohn keine chance um durchzukommen, euer ding ist monophon guter rap ist auf diät und der erst verdient kohle, alter ey man es reicht, unsere tracks sind scharf wie pfeffer trotzdem sind wir untergrund und laden keinen treffer, wieso wo liegt der sinn das, was wir proben ist fat vielleicht liegt es daran, dass meine kohle man bedreckt okay, wenn es so ist, dann bleiben wir lieber unten der absolute wiederstand, das salz für eure wunden dmk, wir kämpfen mit dem auge des tigers, vader und bushido, der weg des kriegers[Chorus:][x4]Und als beweis dafür, gebe ich mein leben für unsere sache[Strophe III:]Hier ist mein leben für die sache ich liefer den beweis hip hop liegt mir am herzen, liefer die fakten schwarz auf weiß, aus der westlichen kammer, zwei partner, vader und bushido ey man, wir burnen euch alle zu viele machen auf calito denken, sie wären der hit, dabei seid ihr marionetten gefangen an fäden, gefangen an ketten möchte wetten, ihr denkt, wir beide sind nur nur schöner, doch am ende wewinner stellen uns quer und zwar für immer werden uns niemals verbeugen, was wir tun ist uns wichtig, auf die liebe kommt es an alles andere null und richtig richtig, atze, wir fronten absichtlich ohne kompromisse gegen uns seht ihr kein strich haben die ass im Ärmel und damit jeden trumpf doch werden wir nur belächelt am ende steht der triumph dmk geboren mit dem willen des siegers vader und bushido der weg des kriegers
+          <t>[Intro:]
+Und jetzt zu den 10 geboten:
+Du sollst deinen anführer nicht verraten
+Du sollst nicht den besitz deines nächsten begehren
+Du sollst nicht stehlen
+Du sollst nicht glücksspiel treiben
+Du sollst keine heimtücke üben
+Liebster, die menschen hier sind nicht freundlich zu ihnen, warum kehren wir nicht zurück, ich kehre nicht wieder zurück, ich werde hier bleiben doch eines tages zeig ich es ihnen
+Ganz egal wie du heißt, ich will wissen, ob du kämpfen kannst
+[Strophe I:]
+Zwei mann haltet euch fest, ey wir wünschen euch die pest bushido und vader wir beide kämpfen gegen den rest der andere für den einen und der eine für den anderen, ecken an egal, in welche richtung, wir gehen man typen die uns begegnen tun das zeitliche segnen, nach mainz westberlin, hip hop ist unsere begebenheit überlegen erst, was wir sagen, überlegen, wie jeder labert, das ist mein standard, das ist fakt und keine frage klar wär man weiche rapper direkt vor ort man bei euch ist's dunkel im hirn, atze mach mal 's licht an, zappenduster, schuster bleib bei deinen leisten, es kippt zusammen, burn wie die meisten tag team killer team, wir kämpfen wie killerbienen schlechte rapper wischen wir weg, wie mit terpentin, sind aspirin für jeden schädel, gold wert für jedes mädel, macht, was ihr wollt, wir sind am längeren hebel kreuzen klingen egal, ob lichtschwert oder catternei, egal, wo ihr seid, geben das feuer rein wir kommen auf den punkt, unsere flows sind präzise, hip hop ist unser leben, für euch ist es nur 'ne spielwiese um zu cashen und eure scheiße raus zudrücken ihr könnt sagen, was ihr wollt, wir werden uns niemals drücken aus mainz sind wir direkt aus der westlichen kammer bushido und vader zu zweit sind wir der hammer sagen euch, was los ist, man wir geben euch die dosis wir texten uns für euch, wie die gebote von moses sind besser als die meisten, deshalb können wir's uns leisten, das maul aufzureißen, weil wir heut auf jeden scheißen
+[Bridge:]
+Ganz genau, wir scheißen drauf
+Ihr seid schwach und wir besser
+[Strophe II:]
+Liefern euch qualität und lügen ans messer grund vader und bushido, das team wie im klick wir kämpfen gemeinsam und der rest wird gefickt sag mir, warum ist hip hop zur zeit so krass in mode überall whycansees, cashen sich fast zu tode denn, egal was geht, der streifen über weite hosen das ist euer prinzip, homo beats kräftig posen kein respekt, kein plan, doch trotzdem voll gefressen, alter, wir sind der brüller mit uns kann sich keiner messen, stecken jeden in die tasche, wie diebe ihre beute scheiß auf morgen, scheiß auf gestern, heute ist heute, junge, wie solln wir leben das verdammte system macht uns zum außenseiter und für euch zum problem, was soll der scheiß wir sind fat baby, das ist fakt, wir wissen, was wir wollen und wir wollen keinen pakt mit dem teufel zu viele schlangen illusion der lügner erntet reichtum, der gute den hohn keine chance um durchzukommen, euer ding ist monophon guter rap ist auf diät und der erst verdient kohle, alter ey man es reicht, unsere tracks sind scharf wie pfeffer trotzdem sind wir untergrund und laden keinen treffer, wieso wo liegt der sinn das, was wir proben ist fat vielleicht liegt es daran, dass meine kohle man bedreckt okay, wenn es so ist, dann bleiben wir lieber unten der absolute wiederstand, das salz für eure wunden dmk, wir kämpfen mit dem auge des tigers, vader und bushido, der weg des kriegers
+[Chorus:][x4]
+Und als beweis dafür, gebe ich mein leben für unsere sache
+[Strophe III:]
+Hier ist mein leben für die sache ich liefer den beweis hip hop liegt mir am herzen, liefer die fakten schwarz auf weiß, aus der westlichen kammer, zwei partner, vader und bushido ey man, wir burnen euch alle zu viele machen auf calito denken, sie wären der hit, dabei seid ihr marionetten gefangen an fäden, gefangen an ketten möchte wetten, ihr denkt, wir beide sind nur nur schöner, doch am ende wewinner stellen uns quer und zwar für immer werden uns niemals verbeugen, was wir tun ist uns wichtig, auf die liebe kommt es an alles andere null und richtig richtig, atze, wir fronten absichtlich ohne kompromisse gegen uns seht ihr kein strich haben die ass im Ärmel und damit jeden trumpf doch werden wir nur belächelt am ende steht der triumph dmk geboren mit dem willen des siegers vader und bushido der weg des kriegers
 [Chorus][x4]</t>
         </is>
       </c>
@@ -575,8 +738,48 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3x YeahWas geht, Bushido[Part 1]Ich sehe hohle Köpfe nennen sich MCKeinem Plan worum es geht, und sie peilen es nieCheck das Microphon und sie denken sie wären TopIhr könnt machen was ihr wollt, ihr seid niemals Hip-HopIhr seid, Wanna-be's, schlecht gemachte Kopie, euer Style ist DDRMeiner kommt aus West-Berlin, alsoWas geht'n ab euer Blöff hat keine ChanceDenn wir ficken euch alle.. Bushido conscienceIhr kommt alle nicht KlarEuren Tracks fehlt der Sinn, für bla bla blaKassiert ihr fetten GewinnFür Beats ohne Gewicht casht ihr fett in unser'm BusinessHer mit dem Mikro, aufgepasst weil jetzt Schluss istIch sage wie es ist, weil ich sehe wie es istVon euch gefürchtet, weil ihr wisst das es so istWas geht, ich bin Bushido, die Wahrheit in der HandEuer Königreich geht unter weil ihr baut aufs LandDas neue Jahrtausend, ey ich weiß ich werd' es schaffenUnd wenn ich erstmal oben binFangen die anderen an zu gaffenWeil dann hab ich es ihnen gezeigtUntergrund gehört nach obenBleibe immer ich selber, beide Beine auf dem BodenNiemals ohne Herz, ohne Herz bist du totViel zu viele sind blind und finden sich in NotDeswegen kann keiner sehen also ist es selbstverständlichIhr seid gefangen, für immer und endlich
-[Samples][Hook x2]Es tut weh, wenn ich seheZu viele Lügen auf der WeltEs tut weh, wenn ich höreDass der König am Ende fälltEs tut weh, wenn ich schmeckeJunge Glaubst du noch an Wunder?Es tut weh, wenn ich fühleMeine Liebe geht unter[Sample]"Auf die Schande des Verrats zahlt er jetzt mit seinem Leben..."</t>
+          <t>3x Yeah
+Was geht, Bushido
+[Part 1]
+Ich sehe hohle Köpfe nennen sich MC
+Keinem Plan worum es geht, und sie peilen es nie
+Check das Microphon und sie denken sie wären Top
+Ihr könnt machen was ihr wollt, ihr seid niemals Hip-Hop
+Ihr seid, Wanna-be's, schlecht gemachte Kopie, euer Style ist DDR
+Meiner kommt aus West-Berlin, also
+Was geht'n ab euer Blöff hat keine Chance
+Denn wir ficken euch alle.. Bushido conscience
+Ihr kommt alle nicht Klar
+Euren Tracks fehlt der Sinn, für bla bla bla
+Kassiert ihr fetten Gewinn
+Für Beats ohne Gewicht casht ihr fett in unser'm Business
+Her mit dem Mikro, aufgepasst weil jetzt Schluss ist
+Ich sage wie es ist, weil ich sehe wie es ist
+Von euch gefürchtet, weil ihr wisst das es so ist
+Was geht, ich bin Bushido, die Wahrheit in der Hand
+Euer Königreich geht unter weil ihr baut aufs Land
+Das neue Jahrtausend, ey ich weiß ich werd' es schaffen
+Und wenn ich erstmal oben bin
+Fangen die anderen an zu gaffen
+Weil dann hab ich es ihnen gezeigt
+Untergrund gehört nach oben
+Bleibe immer ich selber, beide Beine auf dem Boden
+Niemals ohne Herz, ohne Herz bist du tot
+Viel zu viele sind blind und finden sich in Not
+Deswegen kann keiner sehen also ist es selbstverständlich
+Ihr seid gefangen, für immer und endlich
+[Samples]
+[Hook x2]
+Es tut weh, wenn ich sehe
+Zu viele Lügen auf der Welt
+Es tut weh, wenn ich höre
+Dass der König am Ende fällt
+Es tut weh, wenn ich schmecke
+Junge Glaubst du noch an Wunder?
+Es tut weh, wenn ich fühle
+Meine Liebe geht unter
+[Sample]
+"Auf die Schande des Verrats zahlt er jetzt mit seinem Leben..."</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -618,8 +821,67 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Part 1]Mein Leben ist die HölleDoch ich brauch es keine FrageKämpf gegen mich selbst bis ans Ende meiner TageGefangen in mir selber, lebe mit mir im KonfliktEy man, ich brauch ne Pause meine Seele ist geknicktGefickt von all dem shitWo bleibt die GerechtigkeitFreunde reden hinter meinem RückenIst das Einigkeit? (auf keinen Fall man, doch wen interessierts?)Keinen, die Leute scheißen auf michGarantiert ist nur einsIch bleibe der Verlierer nie GewinnerLebe am Abgrund, Untergrund für immerEgal ob ich gut binAll die Wichser scheißen draufJa ich könnte dazu gehören (mit meinem eigenen Verkauf)Doch da stehe ich nicht draufMein Junge bleib so wie ich binWürde ich das alles nicht checkenGäbe es für mich keinen SinnAll die Lügen und der Neid, okayIch bins gewöhntDoch, das ist der Grund warum mein Herz weint und stöhnt...(ja man, das ist der Grund warum mein Herz weint und stöhntZu viele Schlangen unter uns, zu viele Leute schauen dir nicht in die AugenReden hinter deinem Rücken, bauen scheiße manAuf deine Kosten, weißt du, für uns reichtEs ab jetzt gibt es nur noch eins baby, wir ficken euch alle, yes yes)
-[Hook x2]Ich würde alles dafür tun (für was?)Für mein Leben (wozu wärst du bereit?)Ich würde alles dafür gebenKeine Chance,  du bist meins und ich lasse dich nicht ruhenMein Leben gehört mir selberIch würde alles dafür tun[Part 2]Ich würde alles dafür tun, baby nimm GiftGlaubst du nicht, dann pass aufWas du hörst ist meine UnterschriftCheck das ab, Westberlin AminofilsMan ich weiß was ich willIch scheiß auf jeden KompromissEs kann nicht schlimmer werdenDenn ich kann nicht tiefer fallenScheißegal ich bin sowieso bald der Beste von allenBleib am Ball und häng mich reinEs liegen Steine auf dem Weg, ey manDas ist egal, ich hab en Plan und weiß was gehtEs war schon immer soIch hab geburned euch fuckt es abLeute kommen an, labern Kacke, gehn mir aufn SackIch hab die Schnauze voll, hab echt kein BockAtze, du bist echt coolChillst am Corner five O'clockOkay, das ist dein bier, aber bitte nicht mit mirIch schieb ein anderen FilmHip Hop ist meine GierUnd der einzige WegUm mit dem Scheißdreck zu lebenIch brauche es, und werde alles dafür geben
+          <t>[Part 1]
+Mein Leben ist die Hölle
+Doch ich brauch es keine Frage
+Kämpf gegen mich selbst bis ans Ende meiner Tage
+Gefangen in mir selber, lebe mit mir im Konflikt
+Ey man, ich brauch ne Pause meine Seele ist geknickt
+Gefickt von all dem shit
+Wo bleibt die Gerechtigkeit
+Freunde reden hinter meinem Rücken
+Ist das Einigkeit? (auf keinen Fall man, doch wen interessierts?)
+Keinen, die Leute scheißen auf mich
+Garantiert ist nur eins
+Ich bleibe der Verlierer nie Gewinner
+Lebe am Abgrund, Untergrund für immer
+Egal ob ich gut bin
+All die Wichser scheißen drauf
+Ja ich könnte dazu gehören (mit meinem eigenen Verkauf)
+Doch da stehe ich nicht drauf
+Mein Junge bleib so wie ich bin
+Würde ich das alles nicht checken
+Gäbe es für mich keinen Sinn
+All die Lügen und der Neid, okay
+Ich bins gewöhnt
+Doch, das ist der Grund warum mein Herz weint und stöhnt...
+(ja man, das ist der Grund warum mein Herz weint und stöhnt
+Zu viele Schlangen unter uns, zu viele Leute schauen dir nicht in die Augen
+Reden hinter deinem Rücken, bauen scheiße man
+Auf deine Kosten, weißt du, für uns reicht
+Es ab jetzt gibt es nur noch eins baby, wir ficken euch alle, yes yes)
+[Hook x2]
+Ich würde alles dafür tun (für was?)
+Für mein Leben (wozu wärst du bereit?)
+Ich würde alles dafür geben
+Keine Chance, du bist meins und ich lasse dich nicht ruhen
+Mein Leben gehört mir selber
+Ich würde alles dafür tun
+[Part 2]
+Ich würde alles dafür tun, baby nimm Gift
+Glaubst du nicht, dann pass auf
+Was du hörst ist meine Unterschrift
+Check das ab, Westberlin Aminofils
+Man ich weiß was ich will
+Ich scheiß auf jeden Kompromiss
+Es kann nicht schlimmer werden
+Denn ich kann nicht tiefer fallen
+Scheißegal ich bin sowieso bald der Beste von allen
+Bleib am Ball und häng mich rein
+Es liegen Steine auf dem Weg, ey man
+Das ist egal, ich hab en Plan und weiß was geht
+Es war schon immer so
+Ich hab geburned euch fuckt es ab
+Leute kommen an, labern Kacke, gehn mir aufn Sack
+Ich hab die Schnauze voll, hab echt kein Bock
+Atze, du bist echt cool
+Chillst am Corner five O'clock
+Okay, das ist dein bier, aber bitte nicht mit mir
+Ich schieb ein anderen Film
+Hip Hop ist meine Gier
+Und der einzige Weg
+Um mit dem Scheißdreck zu leben
+Ich brauche es, und werde alles dafür geben
 [Hook x2]</t>
         </is>
       </c>
@@ -662,9 +924,81 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Strophe I:][Vader]Ihr seid dem Ursprung weit entferntKeiner weiß worum es geht!Den Meisten fehlt Innnovation und OrginalitätHip-Hop ist in den Charts, doch wo ist die Effizienz?Entweder liegts an den HörernOder an mangelnder Konkurrenz!Manchmal frag ich michSchaffen wir die nächste Runde?Den es ist 5 vor 12Hip-Hop geht vor die HundeGruppen werden gehypedWie Hertha BSC!Der Medieneinfluss ist größerUnd stärker den jeDoch zu vielen da draußenFehlt einfach die SubstanzNach meins sagen nur was Sache istDas ist keine ArroganzJunge dabeiGeht es uns nicht ums DissenDabeiGeht's um Gefühle und um reines GewissenErklär mir doch einfachWarum geht jeder mit dem Trend?Seichte Themen sind verkaufbarDas weiß jeder Produzent mit echtem ScheißDa machst du keinen HitUnd ey das machst du nur mit billigem Bullshit!
-[Chorus :] x2[Bushido]5 vor 12 an den StartHip hop geht vor die Hunde[Vader]Was ich höre tut wehIst das Salz für meine Wunde?[Bushido]Werden wir es jemals schaffenOder ist es schon zu spät?[Vader]Hip hop ist in NotWeil keiner weiß warum es geht![Strophe II:][Bushido]Ey manEs geht um liebe um Beats um fette RapsNicht umHardcore das Geld oder um SexNicht umCool zu sein oder auch andre zu dissenHier geht'sUm das Verlangen nach einem reinen GewissenUmEhrlich zu sein was willst du wenn du ehrlich bist!Kannst du dich daran erinnern?Was soll der ganze Mist?Hör auf, ich hab's gepeiltAlle andren sind whackKeiner weiß worum es geht!Machen Kohle mit Dreck, was gehtWo bleibt der UrsprungWo ist die SubstanzViel zu wenige sind real!Totale Arroganz!Jeder denkt ihr habt was draufDoch da habt ihr Falsch gedacht, macht lieberMal den Kopf zuIn der Ruhe liegt die Macht, BushidoIch weiß wohin und gehe losHalte Immer daran festIst der Feind auch noch so großWerd ich kämpfenUnd wenn ich unterliegeDann ist es mir egal weil ich rappte aus Liebe!
-[Chorus :]x2[Stimmen sind vertauscht]</t>
+          <t>[Strophe I:][Vader]
+Ihr seid dem Ursprung weit entfernt
+Keiner weiß worum es geht!
+Den Meisten fehlt Innnovation und Orginalität
+Hip-Hop ist in den Charts, doch wo ist die Effizienz?
+Entweder liegts an den Hörern
+Oder an mangelnder Konkurrenz!
+Manchmal frag ich mich
+Schaffen wir die nächste Runde?
+Den es ist 5 vor 12
+Hip-Hop geht vor die Hunde
+Gruppen werden gehyped
+Wie Hertha BSC!
+Der Medieneinfluss ist größer
+Und stärker den je
+Doch zu vielen da draußen
+Fehlt einfach die Substanz
+Nach meins sagen nur was Sache ist
+Das ist keine Arroganz
+Junge dabei
+Geht es uns nicht ums Dissen
+Dabei
+Geht's um Gefühle und um reines Gewissen
+Erklär mir doch einfach
+Warum geht jeder mit dem Trend?
+Seichte Themen sind verkaufbar
+Das weiß jeder Produzent mit echtem Scheiß
+Da machst du keinen Hit
+Und ey das machst du nur mit billigem Bullshit!
+[Chorus :] x2
+[Bushido]
+5 vor 12 an den Start
+Hip hop geht vor die Hunde
+[Vader]
+Was ich höre tut weh
+Ist das Salz für meine Wunde?
+[Bushido]
+Werden wir es jemals schaffen
+Oder ist es schon zu spät?
+[Vader]
+Hip hop ist in Not
+Weil keiner weiß warum es geht!
+[Strophe II:][Bushido]
+Ey man
+Es geht um liebe um Beats um fette Raps
+Nicht um
+Hardcore das Geld oder um Sex
+Nicht um
+Cool zu sein oder auch andre zu dissen
+Hier geht's
+Um das Verlangen nach einem reinen Gewissen
+Um
+Ehrlich zu sein was willst du wenn du ehrlich bist!
+Kannst du dich daran erinnern?
+Was soll der ganze Mist?
+Hör auf, ich hab's gepeilt
+Alle andren sind whack
+Keiner weiß worum es geht!
+Machen Kohle mit Dreck, was geht
+Wo bleibt der Ursprung
+Wo ist die Substanz
+Viel zu wenige sind real!
+Totale Arroganz!
+Jeder denkt ihr habt was drauf
+Doch da habt ihr Falsch gedacht, macht lieber
+Mal den Kopf zu
+In der Ruhe liegt die Macht, Bushido
+Ich weiß wohin und gehe los
+Halte Immer daran fest
+Ist der Feind auch noch so groß
+Werd ich kämpfen
+Und wenn ich unterliege
+Dann ist es mir egal weil ich rappte aus Liebe!
+[Chorus :]x2
+[Stimmen sind vertauscht]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,9 +1040,66 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, ca-ca-can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't touch the flow[Part 1: Vader]Jetzt macht mal halblang, ihr geht unter wie im TreibsandDM Klique geht weit über dein Verstand [?]Und ihr könnt uns lange suchenBushido und Vader, da könnt ihr lange fluchenSind auf unser'm Weg wie CarlitoCashen dabei, wie De Niro im CasinoIm Auftrag des Teufels, genauso wie PacinoDark Mindz Killerteam zusammen mit Mörderflow[Part 2: Bushido]Mit Mörderflows, yesBushido DM Klique, wir burnen euch alleDieser Beat bricht dein GenickDeine Knochen werden brechen, Bushido wird dafür sorgenUnser Schiff wird euch versenken, wenn nicht heute dann morgenWestberlin represent, so heiß, dass ihr verbrenntDark Mindz, die dicken Tracks die jeder kenntKeine Frage, Bushido, ey, ich komme präziseVerwurzelt im Untergrund, Hip-Hop ist die Devise
-[Part 3: Vader]Yes, Untergrund, allein zu zweitNiemals [?] steh'n SchlangeDenn Dark Mindz steht für [?]Yes, mehr Untergrund als die KanalisationWestberlin ist die Stadt Dark Mindz die OrganisationGrand Vader, Bushido im Einsatz wie die NATOKämpfen gegen den Rest, mit vollem RisikoYes, Untergrund aus der westlichen KammerDa hilft kein Gejammer, DMK ist voll der Hammer[Part 4: Bushido]Yes, wie ein Genickschuss86 BPM, übernehme das KommandoWähle 112, weil ich brenn' euch zu Grunde - Asche zu AscheMit unseren Flows, [?] straight steck ich jeden in die TascheNull drei null, ist das Siegel des Erfolgs, der Grund warum ihr untergehtBushido, was soll's? Na gut, du hast RechtDas hier burnt, dass ist FaktDMK Westberlin, auf den Rest wird gekackt[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't touch, touch, touch the flow
-[Part 5: Vader]Junge raff dich, du weißt ich schaff' dichMach mich schlaff, ichUnd Bushido, wir beiden machen jeden StichHaben die Trümpfe in der Hand, reden euch an die WandSind wir beide am Start, dann seht ihr kein LandYes, wir sind best, direkt aus Berlin West, Dark Mindz Klique, heDu weißt wir starten den Protest, gegen alle Fotzen, alle Faker, jeden ParasitIhr könnt machen was ihr wollt, bei uns beißt ihr auf Granit[Part 6: Bushido]Beißt euch die Zähne aus, Bushido und Vader sind nicht zu stoppenMeister der Evolution yeah, wir sind nicht zu toppenKriegen alles was wir woll'n, eine Frage der ZeitWir haben alles was wir brauchenKommt her, wir sind bereit, wir nehmen euch ins VisierKoordinaten angepeilt, strahlen heller als die SonneUnser Lohn ist euer Neide, yes yesNehme das Mikro in meine HandDu bist unser Ziel und der Bogen ist gespannt[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't, can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't, can't touch the flow</t>
+          <t>[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, ca-ca-can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't touch the flow
+[Part 1: Vader]
+Jetzt macht mal halblang, ihr geht unter wie im Treibsand
+DM Kliquegeht weit über dein Verstand [?]
+Und ihr könnt uns lange suchen
+Bushido und Vader, da könnt ihr lange fluchen
+Sind auf unser'm Weg wie Carlito
+Cashen dabei, wie De Niro im Casino
+Im Auftrag des Teufels, genauso wie Pacino
+Dark Mindz Killerteam zusammen mit Mörderflow
+[Part 2: Bushido]
+Mit Mörderflows, yes
+Bushido DM Klique, wir burnen euch alle
+Dieser Beat bricht dein Genick
+Deine Knochen werden brechen, Bushido wird dafür sorgen
+Unser Schiff wird euch versenken, wenn nicht heute dann morgen
+Westberlin represent, so heiß, dass ihr verbrennt
+Dark Mindz, die dicken Tracks die jeder kennt
+Keine Frage, Bushido, ey, ich komme präzise
+Verwurzelt im Untergrund, Hip-Hop ist die Devise
+[Part 3: Vader]
+Yes, Untergrund, allein zu zweit
+Niemals [?] steh'n Schlange
+Denn Dark Mindz steht für [?]
+Yes, mehr Untergrund als die Kanalisation
+Westberlin ist die StadtDark Mindz die Organisation
+Grand Vader, Bushido im Einsatz wie die NATO
+Kämpfen gegen den Rest, mit vollem Risiko
+Yes, Untergrund aus der westlichen Kammer
+Da hilft kein Gejammer, DMK ist voll der Hammer
+[Part 4: Bushido]
+Yes, wie ein Genickschuss
+86 BPM, übernehme das Kommando
+Wähle 112, weil ich brenn' euch zu Grunde - Asche zu Asche
+Mit unseren Flows, [?] straight steck ich jeden in die Tasche
+Null drei null, ist das Siegel des Erfolgs, der Grund warum ihr untergeht
+Bushido, was soll's?Na gut, du hast Recht
+Das hier burnt, dass ist Fakt
+DMK Westberlin, auf den Rest wird gekackt
+[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't touch, touch, touch the flow
+[Part 5: Vader]
+Junge raff dich, du weißt ich schaff' dich
+Mach mich schlaff, ich
+Und Bushido, wir beiden machen jeden Stich
+Haben die Trümpfe in der Hand, reden euch an die Wand
+Sind wir beide am Start, dann seht ihr kein Land
+Yes, wir sind best, direkt aus Berlin West, Dark Mindz Klique, he
+Du weißt wir starten den Protest, gegen alle Fotzen, alle Faker, jeden Parasit
+Ihr könnt machen was ihr wollt, bei uns beißt ihr auf Granit
+[Part 6: Bushido]
+Beißt euch die Zähne aus, Bushido und Vader sind nicht zu stoppen
+Meister der Evolution yeah, wir sind nicht zu toppen
+Kriegen alles was wir woll'n, eine Frage der Zeit
+Wir haben alles was wir brauchen
+Kommt her, wir sind bereit, wir nehmen euch ins Visier
+Koordinaten angepeilt, strahlen heller als die Sonne
+Unser Lohn ist euer Neide, yes yes
+Nehme das Mikro in meine Hand
+Du bist unser Ziel und der Bogen ist gespannt
+[Sample]Ayo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't, can't touch the flowAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtAyo, what up? It's the crew bringing the ruckus, no doubtCan't, can't, can't touch the flow</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -750,9 +1141,76 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Intro: Bushido]Vader, DMC, Fabrice, Bushido, Westberlin, yeahNeun neun, die westliche Kammer, BabyAh, yeah, yeah, ah[Part 1: Bushido]Ich erhebe die Klage, mein Gebiet sind die BeweiseProduziere 1A und ihr, ihr seid scheiße, also seid leiseVon euch hab ich schon genug, euer Getue ist ein WitzEure Tracks, reiner Betrug gegen michDDR, der Ostblock, was geht ab?Ich bin der goldenen WestenDu willst mich, das ist FaktWestberlin Untergrund, geboren um euch zu fickenDMK ist im Haus und alle Köpfe nickenYes, so muss es sein, Dark Mindz, wir sind fettMein Style ist Maskulin, deine Crew ist BalletGanz nett wenn man auf Männer steht, Junge ihr seid HomosKüsst mein Arsch und onaniert auf meine Promos (ah, yeah)Ihr würdet alles für mich tun, Bushido ist der MechSchieb' den dicken im Casino, prollen ist das Mittel zum ZweckUnd der Zweck heiligt die MittelBushido, Brave Star, das neue Kapitel[Bridge: Vader und Bushido]Yeah, yeah, Bushido, neues Kapitel (yes, yes)Da gibt's kein Gegenmittel, alter (gibt's kein, man)Yeah, Vader, Bushido, ah, Bushido Atze, yesWas geht? Neues Tape, neues Kapitel (ah, ah)Ah, yeah, Dark Mindz Clique, sicher, [?]
-[Part 2: Bushido]Leg die Karten auf den Tisch, ich bin am ZugIch überrenne eure Decken, ihr seid Ebbe, ich bin FlutKeine Chance mich zu stoppen, die Natur ist nicht zu beugenMeine Flows sind präzise, ihr könnt es nicht leugnenPizza la Chef, frisch gepresst und heiß serviertIch bin der Chef in der Küche, Hörgenuss wird garantiertFünf Sterne Menü, am Rezept wird nicht gespartDu kannst einpacken Gringo, Bushido ist am StartIch scheiß auf euch alle, von New York nach GermanyVon wegen ihr seid real und fickt euch ins KnieIhr könnt euch alle selber ficken, wie die Tunten in den ArschEure Zeit ist abgelaufen, jetzt ist Untergrund angesagtKeine Kompromisse, mir ist das zu wichtigScheiß auf alles andere, außer mir ist keiner wichtigDark Mindz zu dritt, treten euch auf den SchlipsDenn wir sind dein Herrchen, du der Hund, also "Sitz"[Bridge: Vader und Bushido]Was geht ab? Was geht ab?Bushido, neun neun, yesNeues Tape, Solo, DMK representYeah, yeah, die westliche Kammer, ahVader und Bushido (Bushido)Yeah, yeah, ah, ahCheckt das ab, checkMach den Kopf zu, checkYes, yes, fickt euch
-[Samples: Tragedy Khadafi, Eminem und Bushido]Say my name, if you want more beefThe world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb itSay my name, if you want more beefThe world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb itSay my name, if you want more beefThe world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb itSay my name, if you want more beefThe world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb itDMK ist im Haus, fuckin' crazyBushido ist der Mech, fuckin' crazyBushido, Brave Star, fuckin', fuckin', fuckin' crazyDMK ist im Haus, fuckin' crazyBushido ist der Mech, fuckin' crazyBushido, Brave Star, fuckin' crazy</t>
+          <t>[Intro: Bushido]
+Vader, DMC, Fabrice, Bushido, Westberlin, yeah
+Neun neun, die westliche Kammer, Baby
+Ah, yeah, yeah, ah
+[Part 1: Bushido]
+Ich erhebe die Klage, mein Gebiet sind die Beweise
+Produziere 1A und ihr, ihr seid scheiße, also seid leise
+Von euch hab ich schon genug, euer Getue ist ein Witz
+Eure Tracks, reiner Betrug gegen mich
+DDR, der Ostblock, was geht ab?
+Ich bin der goldenen Westen
+Du willst mich, das ist Fakt
+Westberlin Untergrund, geboren um euch zu ficken
+DMK ist im Haus und alle Köpfe nicken
+Yes, so muss es sein, Dark Mindz, wir sind fett
+Mein Style ist Maskulin, deine Crew ist Ballet
+Ganz nett wenn man auf Männer steht, Junge ihr seid Homos
+Küsst mein Arsch und onaniert auf meine Promos (ah, yeah)
+Ihr würdet alles für mich tun, Bushido ist der Mech
+Schieb' den dicken im Casino, prollen ist das Mittel zum Zweck
+Und der Zweck heiligt die Mittel
+Bushido, Brave Star, das neue Kapitel
+[Bridge: Vader undBushido]
+Yeah, yeah, Bushido, neues Kapitel (yes, yes)
+Da gibt's kein Gegenmittel, alter (gibt's kein, man)
+Yeah,Vader, Bushido, ah, Bushido Atze,yes
+Was geht? Neues Tape, neues Kapitel (ah, ah)
+Ah, yeah, Dark Mindz Clique,sicher, [?]
+[Part 2: Bushido]
+Leg die Karten auf den Tisch, ich bin am Zug
+Ich überrenne eure Decken, ihr seid Ebbe, ich bin Flut
+Keine Chance mich zu stoppen, die Natur ist nicht zu beugen
+Meine Flows sind präzise, ihr könnt es nicht leugnen
+Pizza la Chef, frisch gepresst und heiß serviert
+Ich bin der Chef in der Küche, Hörgenuss wird garantiert
+Fünf Sterne Menü, am Rezept wird nicht gespart
+Du kannst einpacken Gringo, Bushido ist am Start
+Ich scheiß auf euch alle, von New York nach Germany
+Von wegen ihr seid real und fickt euch ins Knie
+Ihr könnt euch alle selber ficken, wie die Tunten in den Arsch
+Eure Zeit ist abgelaufen, jetzt ist Untergrund angesagt
+Keine Kompromisse, mir ist das zu wichtig
+Scheiß auf alles andere, außer mir ist keiner wichtig
+Dark Mindz zu dritt, treten euch auf den Schlips
+Denn wir sind dein Herrchen, du der Hund, also "Sitz"
+[Bridge: Vader undBushido]
+Was geht ab?Was geht ab?
+Bushido, neun neun, yes
+Neues Tape, Solo,DMK represent
+Yeah, yeah,die westliche Kammer, ah
+Vader und Bushido(Bushido)
+Yeah, yeah, ah, ah
+Checkt das ab, check
+Mach den Kopf zu, check
+Yes, yes, fickt euch
+[Samples: Tragedy Khadafi, Eminem und Bushido]
+Say my name, if you want more beef
+The world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb it
+Say my name, if you want more beef
+The world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb it
+Say my name, if you want more beef
+The world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb it
+Say my name, if you want more beef
+The world ain't ready for me, yetIf y'all don't like me, you can suck my dick 'til you numb it
+DMK ist im Haus, fuckin' crazy
+Bushido ist der Mech, fuckin' crazy
+Bushido, Brave Star, fuckin', fuckin', fuckin' crazy
+DMK ist im Haus, fuckin' crazy
+Bushido ist der Mech, fuckin' crazy
+Bushido, Brave Star, fuckin' crazy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,9 +1252,75 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Intro][?]Echter [?], Westberlin[?]Easy listening, man[?]Der einzige Coole, schreib dir das hinter die Ohr'n[?][Part 1]Leute, was geht? Checkt mein BeatLasst euch verleiten mal ehrlich zu seinWir tauchen ab, in die Weiten eurer Seel'nSchaut hin, sehr wer ihr seidEin winziger Punkt, in den Weiten der UnendlichkeitIhr denkt, die Sonne dreht sich, weil ihr existiertEure Regeln sind die Weisheit, weil ihr alle studiertDoch was geht ab? Kommt runter, tut nicht so verbissenMacht ihr auf Wannabe, dann wird auf euch geschissenSei doch mal ehrlich, was denkst du wenn du mich siehst?Gut zu denken, ich bin dein Meister und du kniest [?]Du bist cool, wenn [?] GeldDein Vater ist der Big Boss, deine Mutter geht fremdDeine Schwester eine Schlampe, eine ätzende HureDie fette Mistsau an der Ecke, dein schwuler BruderDeine Wurzeln sind verseucht, die Zellen kollabier'nDoch egal, du willst nach oben, jedem imponier'n
-[Hook]Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?Suchst du wahren Respekt, ist es das was du vermisst?Okay, den kannst du haben, aber alles hat 'n PreisAller Anfang ist schwer, es ist hart, wenn man nicht weißJunge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?Suchst du wahren Respekt, ist es das was du vermisst?Okay, den kannst du haben, aber alles hat 'n PreisAller Anfang ist schwer, es ist hart, wenn man nicht weiß[Part 2]Kleiner Spast, du willst nach oben?Ey, ich kann es dir nicht verdenken, doch pass auf dennWenn du oben bist, dann wird man dir nichts schenkenGanz im Gegenteil, man nimmt dir alles was du hastTurbopower, Action, [?]Kontrast, schwarz weiß, hör lieber auf mit dem scheißDu spielst mit dem Feuer, Millionen Grade, viel zu heißBehalte deine Seele, dein einziges GutGib Acht und halt die Fresse, [?] mit dir selberIch weiß es ist krass ungerecht, doch das ist das LebenUnverfälscht, echt, jedes andersSonst fehlt der ganzen Sache doch der SpaßJunge willst du [?] sein, dann gib doch endlich GasEs ist fünf vor zwölf, an den Start [?]Denn wär es zwölf, dann wär es für dich jetzt viel zu spätMeine Name ist Bushido, meine Stadt WestberlinUnd bei euch gibt es noch mehr, aber nur noch mit Termin
-[Hook]Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?Suchst du wahren Respekt, ist es das was du vermisst?Okay, den kannst du haben, aber alles hat 'n PreisAller Anfang ist schwer, es ist hart, wenn man nicht weißJunge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?Suchst du wahren Respekt, ist es das was du vermisst?Okay, den kannst du haben, aber alles hat 'n PreisAller Anfang ist schwer, es ist hart, wenn man nicht weiß[Outro]Yeah, yeah, yeahDark Mindz[?]Yes, yes[?]Nix du, digga, Bushido</t>
+          <t>[Intro]
+[?]
+Echter [?], Westberlin
+[?]
+Easy listening, man
+[?]
+Der einzige Coole, schreib dir das hinter die Ohr'n
+[?]
+[Part 1]
+Leute, was geht? Checkt mein Beat
+Lasst euch verleiten mal ehrlich zu sein
+Wir tauchen ab, in die Weiten eurer Seel'n
+Schaut hin, sehr wer ihr seid
+Ein winziger Punkt, in den Weiten der Unendlichkeit
+Ihr denkt, die Sonne dreht sich, weil ihr existiert
+Eure Regeln sind die Weisheit, weil ihr alle studiert
+Doch was geht ab? Kommt runter, tut nicht so verbissen
+Macht ihr auf Wannabe, dann wird auf euch geschissen
+Sei doch mal ehrlich, was denkst du wenn du mich siehst?
+Gut zu denken, ich bin dein Meister und du kniest [?]
+Du bist cool, wenn [?] Geld
+Dein Vater ist der Big Boss, deine Mutter geht fremd
+Deine Schwester eine Schlampe, eine ätzende Hure
+Die fette Mistsau an der Ecke, dein schwuler Bruder
+Deine Wurzeln sind verseucht, die Zellen kollabier'n
+Doch egal, du willst nach oben, jedem imponier'n
+[Hook]
+Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?
+Suchst du wahren Respekt, ist es das was du vermisst?
+Okay, den kannst du haben, aber alles hat 'n Preis
+Aller Anfang ist schwer, es ist hart, wenn man nicht weiß
+Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?
+Suchst du wahren Respekt, ist es das was du vermisst?
+Okay, den kannst du haben, aber alles hat 'n Preis
+Aller Anfang ist schwer, es ist hart, wenn man nicht weiß
+[Part 2]
+Kleiner Spast, du willst nach oben?
+Ey, ich kann es dir nicht verdenken, doch pass auf denn
+Wenn du oben bist, dann wird man dir nichts schenken
+Ganz im Gegenteil, man nimmt dir alles was du hast
+Turbopower, Action, [?]
+Kontrast, schwarz weiß, hör lieber auf mit dem scheiß
+Du spielst mit dem Feuer, Millionen Grade, viel zu heiß
+Behalte deine Seele, dein einziges Gut
+Gib Acht und halt die Fresse, [?] mit dir selber
+Ich weiß es ist krass ungerecht, doch das ist das Leben
+Unverfälscht, echt, jedes anders
+Sonst fehlt der ganzen Sache doch der Spaß
+Junge willst du [?] sein, dann gib doch endlich Gas
+Es ist fünf vor zwölf, an den Start [?]
+Denn wär es zwölf, dann wär es für dich jetzt viel zu spät
+Meine Name ist Bushido, meine Stadt Westberlin
+Und bei euch gibt es noch mehr, aber nur noch mit Termin
+[Hook]
+Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?
+Suchst du wahren Respekt, ist es das was du vermisst?
+Okay, den kannst du haben, aber alles hat 'n Preis
+Aller Anfang ist schwer, es ist hart, wenn man nicht weiß
+Junge, sei doch mal ehrlich: Was willst du wenn du ehrlich bist?
+Suchst du wahren Respekt, ist es das was du vermisst?
+Okay, den kannst du haben, aber alles hat 'n Preis
+Aller Anfang ist schwer, es ist hart, wenn man nicht weiß
+[Outro]
+Yeah, yeah, yeah
+Dark Mindz
+[?]
+Yes, yes
+[?]
+Nix du, digga, Bushido</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -838,10 +1362,95 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Intro: Typ und Bushido]Ey, was geht ab?Alles klar bei dir?Machst deutsch-französichen Hip-Hop?Auf jeden Fall, [?] kommst ja aus Westberlin, MarseilleWie kann man so euren Style interpretier'n? Wollt ihr damit an die breite Seite geh'n?Nein, man. Wir wollen nicht an die breite Seite, weil wir die breite Seite damit ficken. Verstehst du? Das ist ganz einfach, dich und alle  da draußen, ihr seid alle schwulEy, man, was geht'n mit dir ab? Was willst damit sagen, ey?Ich sag einfach, dass wir euch alle ficken, man! Verstehst du?Ganz einfach[Part 1: Bushido]Ey, wir ficken euch alle, egal wer ihr auch seidBushido, echter [?], kommt her, ich bin bereitIch nehm' es mit euch auf, werde eure Knochen brechenLiefer euch Beweise, die selber für sich sprechenAlter, geb euch kein Blatt um eure scheiße zu entfaltenIch frage mich: "Wann werdet ihr es endlich schalten?"Für euch gibt's kein Bedarf, also dürft ihr euch verpissenWas zählt ist [?], auf [?] wird geschissenIch kann's mir erlauben, weil uns're Tracks was taugenReinigen die Seele und öffnen eure AugenDann macht's klick und ihr Deppen seid schockiertBushido, [?] und der Rest wird attackiertWas für Beats, Baby? Erste Sahne, DM KliqueEchter Talk, kümmer mich um dein GenickHast du Sorgen? Kein Problem, raff dich auf und komm zu PapaMeine Fans lieben mich, [?] bla bla
-[Bridge]Yeah, yeah, ah, ahWas geht ab, man? Yes, yes[?] neunundneunzigYeah, [bisschen Geld fürs Geld?]Der zweite Teil[Part 2: Bushido]Westberlin Untergrund, represent am [?]AKA [?], lass die Finger von dem DreckWenn du nicht willst, dass ich dich nicht finde, such das WeiteMeine Skills burn dich auf jedenReite auf dem Beat, die Stimme und das Mic sind die ZügelDer shit den ich hier kicke kommt straightPrügel für den HörerCheck, es ist Genuss für jeden KennerMein Style unteilbar, es gibt kein Nenner[?] geboren in WestberlinUnsere Tracks, der HammerHast du Zucker? Insulin für dein KörperDie Luft für deine LungeJunge, halt die Fresse, sonst klau ich dir die ZungeDas Tape Undercover, wie James Bond GoldfingerBushido aus dem Westen, represente für immer das was ich binUnd gib den Neidern keine ChanceBerlin, Marseille, Dark Mindz, Consience
-[Part 3: Fabrice]Pas des vidéos truquées, car se sont ni des réalités à l' inverse dans nos chansonsAu microphone je torture comme un (?) au bout d'un hameçonC'est MorpheuTechnique est rusée toujours là comme une pute à la chasse d' une queueMaitriseur du jeu, répresente le feuJamais du temps pour être endormis, chaque jour à l' enquêteDemande à la fonky familyBrûle des clopes, fume du shitEt si ca t' emmerde nique ta mère fils de puteAussi soft que vulgaire, je met tout sur le tapis et ne sais plusQuoi faire. Défend se putain de hip-hop comme un copCherche pas d' amour fais mon boulot comme un brigadeÀ la fin toujours vainqueur comme renégade![Part 4: Vader]Yes, Vader, Original B-BoyGreife mir das Mikro, ich weiß ich burneGlycerin und Nitro, fake MCs machen auf dickDoch ich stecke sie in die TascheDenken sie haben's drauf, dabei sind leer wie FlascheAlle wollen rappen, doch oft wird's zum FiaskoMein Style ist Hip-Hop, mein Flow ist PornoApropos du redest über Sex, obwohl du nie 'ne Braut hattestAlso gehst du zur Nutte, oder du betreibst 'n [?]Vader, represent Dark Mindz Klique, [?], der Rest wird geficktWie Rebecca von jedem, geh mir nicht auf die NervenUns're Tracks sind Bomben und nicht zu entschärfenKomm fetter als Pamela, gefährlicher als EbolaDie Beats komm'n fetter als [?]Von hier bis Kanda verbreite ich mein shitFaker kriegen 'nen Haken, Chicas 'n feuchten SchrittErzählst du [?] dass du seit Jahren dabei bistDabei bist du 'ne null und weißt nicht mal wer [?] istAtze, du bist 'n Spast, dein scheiß ist mir zu [?]It's a hard knock life
-[Part 5: Fabrice][?]</t>
+          <t>[Intro: Typ undBushido]
+Ey, was geht ab?
+Alles klar bei dir?
+Machst deutsch-französichen Hip-Hop?
+Auf jeden Fall, [?] kommst ja aus Westberlin, Marseille
+Wie kann man so euren Style interpretier'n? Wollt ihr damit an die breite Seite geh'n?
+Nein, man. Wir wollen nicht an die breite Seite, weil wir die breite Seite damit ficken. Verstehst du? Das ist ganz einfach, dich und alle da draußen, ihr seid alle schwul
+Ey, man, was geht'n mit dir ab? Was willst damit sagen, ey?
+Ich sag einfach, dass wir euch alle ficken, man! Verstehst du?
+Ganz einfach
+[Part 1: Bushido]
+Ey, wir ficken euch alle, egal wer ihr auch seid
+Bushido, echter [?], kommt her, ich bin bereit
+Ich nehm' es mit euch auf, werde eure Knochen brechen
+Liefer euch Beweise, die selber für sich sprechen
+Alter, geb euch kein Blatt um eure scheiße zu entfalten
+Ich frage mich: "Wann werdet ihr es endlich schalten?"
+Für euch gibt's kein Bedarf, also dürft ihr euch verpissen
+Was zählt ist [?], auf [?] wird geschissen
+Ich kann's mir erlauben, weil uns're Tracks was taugen
+Reinigen die Seele und öffnen eure Augen
+Dann macht's klick und ihr Deppen seid schockiert
+Bushido, [?] und der Rest wird attackiert
+Was für Beats, Baby? Erste Sahne, DM Klique
+Echter Talk, kümmer mich um dein Genick
+Hast du Sorgen? Kein Problem, raff dich auf und komm zu Papa
+Meine Fans lieben mich, [?] bla bla
+[Bridge]
+Yeah, yeah, ah, ah
+Was geht ab, man? Yes, yes
+[?] neunundneunzig
+Yeah, [bisschen Geld fürs Geld?]
+Der zweite Teil
+[Part 2: Bushido]
+Westberlin Untergrund, represent am [?]
+AKA [?], lass die Finger von dem Dreck
+Wenn du nicht willst, dass ich dich nicht finde, such das Weite
+Meine Skillsburn dich auf jeden
+Reite auf dem Beat, die Stimme und das Mic sind die Zügel
+Der shit den ich hier kicke kommt straight
+Prügel für den Hörer
+Check, es ist Genuss für jeden Kenner
+Mein Style unteilbar, es gibt kein Nenner
+[?] geboren in Westberlin
+Unsere Tracks, der Hammer
+Hast du Zucker? Insulin für dein Körper
+Die Luft für deine Lunge
+Junge, halt die Fresse, sonst klau ich dir die Zunge
+Das Tape Undercover, wie James Bond Goldfinger
+Bushido aus dem Westen, represente für immer das was ich bin
+Und gib den Neidern keine Chance
+Berlin, Marseille, Dark Mindz, Consience
+[Part 3: Fabrice]
+Pas des vidéos truquées, car se sont ni des réalités à l' inverse dans nos chansons
+Au microphone je torture comme un (?) au bout d'un hameçon
+C'est Morpheu
+Technique est rusée toujours là comme une pute à la chasse d' une queue
+Maitriseur du jeu, répresente le feu
+Jamais du temps pour être endormis, chaque jour à l' enquête
+Demande à la fonky family
+Brûle des clopes, fume du shit
+Et si ca t' emmerde nique ta mère fils de pute
+Aussi soft que vulgaire, je met tout sur le tapis et ne sais plus
+Quoi faire. Défend se putain de hip-hop comme un cop
+Cherche pas d' amour fais mon boulot comme un brigade
+À la fin toujours vainqueur comme renégade!
+[Part 4: Vader]
+Yes, Vader, Original B-Boy
+Greife mir das Mikro, ich weiß ich burne
+Glycerin und Nitro, fake MCs machen auf dick
+Doch ich stecke sie in die Tasche
+Denken sie haben's drauf, dabei sind leer wie Flasche
+Alle wollen rappen, doch oft wird's zum Fiasko
+Mein Style ist Hip-Hop, mein Flow ist Porno
+Apropos du redest über Sex, obwohl du nie 'ne Braut hattest
+Also gehst du zur Nutte, oder du betreibst 'n [?]
+Vader, represent Dark Mindz Klique, [?], der Rest wird gefickt
+Wie Rebecca von jedem, geh mir nicht auf die Nerven
+Uns're Tracks sind Bomben und nicht zu entschärfen
+Komm fetter als Pamela, gefährlicher als Ebola
+Die Beats komm'n fetter als [?]
+Von hier bis Kanda verbreite ich mein shit
+Faker kriegen 'nen Haken, Chicas 'n feuchten Schritt
+Erzählst du [?] dass du seit Jahren dabei bist
+Dabei bist du 'ne null und weißt nicht mal wer [?] ist
+Atze, du bist 'n Spast, dein scheiß ist mir zu [?]
+It's a hard knock life
+[Part 5: Fabrice]
+[?]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,10 +1492,94 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Intro: Bushido, Vader]Yeah, yeah, yeah, yeah, was geht ab bei euch, man? Hah, whah, [?], Bushido, Vader, El Diablo, yeah, Deathbringer, Buttman Orgasmus, was geht ab bei euch, man? Yeah, yeah, 030 schlägt zurück. Ok, man, checkt das ab![Part 1: King Orgasmus One]Wir sind die Super-Rapper, kommen dick und fetterUnd in jeder Disko dreht sich unsre Scheibe auf'm PlattentellerEy, es ist Standard, dass wir burnenUnd Pussys schmelzen dahin, wenn sie meine Stimme hör'nVolume dreihundert und die Boxen vibrierenMädchen scheißen auf Vibratoren, denn ihre Fotzen explodierenIch probe im Studio am Mic mit nuklearen LyricsUnd Beats oft, Bässe sind gewaltig wie Frankreichs AtomtestsFattest wie zwei Air-Jets aufeinander geknalltWenn ich feature, aber ich scheiß auf schwule Toni CotturaFotze, wir bringen dich zum kochenProduzenten kommen zu uns in den Arsch gekrochenBullen-Terror, wir scheißen auf's GesetzBist du unser Feind, wirst du in den Tod gehetztButtman alias JeffUnter Frauen bin ich Chef, Deathbringer, [?] Sprinter030 SquadButtman, Orgasmus, Vader, Bushido[Hook: Bushido, Vader, King Orgasmus One]Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzenWestberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzen
-[Part 2: Vader]El Diablo, Grand Vader, kommt mir nicht in die QuereSein oder nicht sein, eine Frage der EhreLiefer' euch die Fakten, alles schwarz auf weißBin mit Leib und Seele dabei, dafür geb ich den BeweisIch fronte absichtlich, den der Scheiß ist mir zu wichtigEgal, was geht, auf Kompromisse verzicht' ich (auf jeden)[?] sind mir Rapper, die viel reden und nichts sagenIch nehm euch ins Visier, noch irgendwelche Fragen?Habe Hip-Hop im Blut, dass ist mein Leben, meine LeidenschaftNoch spielen wir zweite Liga, nächstes Jahr schon MeisterschaftVader, setzte euch Schachmatt wie CapablancaStell' euch ins Abseits, versenke euch wie Öltanker (yeah, yeah)Gefährlicher als Malaria, schärfer als ein KatanaEindrucksvoller als in der Finsternis die KoronaDu kommst nicht klar, Grand Vader, Dark Mindz KliqueBurn' euch zu jeder Zeit, behalt' immer den Überblick[Hook: Bushido, Vader, King Orgasmus One]Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzenWestberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzen
-[Part 3: Bushido]Ich rappe, also bin ich Fuchs aka BushidoFette Beats sind für mich wie das Koks für CarlitoUndercover, scheiß auf jedes InterviewMeine Fans wählen mich wie die Ossis DVUCheck die Crew, Kollaboration West-BerlinWas sind unsre Tracks? Underground, anonymDas System ist nicht zu knacken, Biter haben keine ChanceMarseille, [?], zusammen ConscienceGeb ich euch, was ihr wolltUnd schon morgen könnt ihr lesen, dass Bushido wieder prolltHier ist der Beweis, hör zu, ich kann's mir leistenWeil ich hab was im Kopf, bin nicht hohl so wie die meistenIch scheiß auf alle, eure Meinung ist nicht wichtigLächerlich, gegen uns null und nichtigHabt kein Plan, trotzdem denkt ihr, ihr wärt ChefLeute, lasst es mich euch sagen, Bushido, Vader, DeathWerden es euch ab jetzt geben, eure fetten Ärsche tretenOhne wenn und aber, fangt schon mal an zu beten[?], Fuchs aka BushidoWerd' erstmal kräftig cashen und dann ab ins Casino[Hook: Bushido, Vader, King Orgasmus One]Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzenWestberlin-Untergrund, jetzt geht's los, ey, wir kicken euchUnsre Tracks, die brennen, ziehen euch aus und ficken euchGeben euch, kein Platz, um euch zu setzenHier ist der Beweis, dass unsre Skills euch zerfetzen
-[Outro: Vader, King Orgasmus One]Was? Yeah, jetzt geht's los! Wir kicken euch. Ah, wir kicken euch. Hier ist der Beweis, man, ah. Ah, yes! Wir zerfetzen euch. Boah! Ey, wir kicken euch und ficken euch und kicken euch und ficken euch. 030!</t>
+          <t>[Intro: Bushido,Vader]
+Yeah, yeah,yeah, yeah,was geht ab bei euch, man? Hah, whah, [?], Bushido, Vader,El Diablo, yeah, Deathbringer, Buttman Orgasmus, was geht ab bei euch, man? Yeah, yeah, 030 schlägt zurück. Ok, man, checkt das ab!
+[Part 1: King Orgasmus One]
+Wir sind die Super-Rapper, kommen dick und fetter
+Und in jeder Disko dreht sich unsre Scheibe auf'm Plattenteller
+Ey, es ist Standard, dass wir burnen
+Und Pussys schmelzen dahin, wenn sie meine Stimme hör'n
+Volume dreihundert und die Boxen vibrieren
+Mädchen scheißen auf Vibratoren, denn ihre Fotzen explodieren
+Ich probe im Studio am Mic mit nuklearen Lyrics
+Und Beats oft, Bässe sind gewaltig wie Frankreichs Atomtests
+Fattest wie zwei Air-Jets aufeinander geknallt
+Wenn ich feature, aber ich scheiß auf schwule Toni Cottura
+Fotze, wir bringen dich zum kochen
+Produzenten kommen zu uns in den Arsch gekrochen
+Bullen-Terror, wir scheißen auf's Gesetz
+Bist du unser Feind, wirst du in den Tod gehetzt
+Buttman alias Jeff
+Unter Frauen bin ich Chef, Deathbringer, [?] Sprinter
+030 Squad
+Buttman, Orgasmus, Vader, Bushido
+[Hook: Bushido,Vader,King Orgasmus One]
+Westberlin-Untergrund,jetzt geht's los,ey, wir kicken euch
+Unsre Tracks, die brennen,ziehen euch ausund ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis,dass unsre Skills euch zerfetzen
+Westberlin-Untergrund,jetzt geht's los,ey, wir kicken euch
+Unsre Tracks, die brennen,ziehen euch ausund ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis,dass unsre Skills euch zerfetzen
+[Part 2: Vader]
+El Diablo, Grand Vader, kommt mir nicht in die Quere
+Sein oder nicht sein, eine Frage der Ehre
+Liefer' euch die Fakten, alles schwarz auf weiß
+Bin mit Leib und Seele dabei, dafür geb ich den Beweis
+Ich fronte absichtlich, den der Scheiß ist mir zu wichtig
+Egal, was geht, auf Kompromisse verzicht' ich (auf jeden)
+[?] sind mir Rapper, die viel reden und nichts sagen
+Ich nehm euch ins Visier, noch irgendwelche Fragen?
+Habe Hip-Hop im Blut, dass ist mein Leben, meine Leidenschaft
+Noch spielen wir zweite Liga, nächstes Jahr schon Meisterschaft
+Vader, setzte euch Schachmatt wie Capablanca
+Stell' euch ins Abseits, versenke euch wie Öltanker (yeah, yeah)
+Gefährlicher als Malaria, schärfer als ein Katana
+Eindrucksvoller als in der Finsternis die Korona
+Du kommst nicht klar, Grand Vader, Dark Mindz Klique
+Burn' euch zu jeder Zeit, behalt' immer den Überblick
+[Hook: Bushido, Vader, King Orgasmus One]
+Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euch
+Unsre Tracks, die brennen, ziehen euch aus und ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis, dass unsre Skills euch zerfetzen
+Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euch
+Unsre Tracks, die brennen, ziehen euch aus und ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis, dass unsre Skills euch zerfetzen
+[Part 3: Bushido]
+Ich rappe, also bin ich Fuchs aka Bushido
+Fette Beats sind für mich wie das Koks für Carlito
+Undercover, scheiß auf jedes Interview
+Meine Fans wählen mich wie die Ossis DVU
+Check die Crew, Kollaboration West-Berlin
+Was sind unsre Tracks? Underground, anonym
+Das System ist nicht zu knacken, Biter haben keine Chance
+Marseille, [?], zusammen Conscience
+Geb ich euch, was ihr wollt
+Und schon morgen könnt ihr lesen, dass Bushido wieder prollt
+Hier ist der Beweis, hör zu, ich kann's mir leisten
+Weil ich hab was im Kopf, bin nicht hohl so wie die meisten
+Ich scheiß auf alle, eure Meinung ist nicht wichtig
+Lächerlich, gegen uns null und nichtig
+Habt kein Plan, trotzdem denkt ihr, ihr wärt Chef
+Leute, lasst es mich euch sagen, Bushido, Vader, Death
+Werden es euch ab jetzt geben, eure fetten Ärsche treten
+Ohne wenn und aber, fangt schon mal an zu beten
+[?], Fuchs aka Bushido
+Werd' erstmal kräftig cashen und dann ab ins Casino
+[Hook: Bushido, Vader, King Orgasmus One]
+Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euch
+Unsre Tracks, die brennen, ziehen euch aus und ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis, dass unsre Skills euch zerfetzen
+Westberlin-Untergrund, jetzt geht's los, ey, wir kicken euch
+Unsre Tracks, die brennen, ziehen euch aus und ficken euch
+Geben euch, kein Platz, um euch zu setzen
+Hier ist der Beweis, dass unsre Skills euch zerfetzen
+[Outro: Vader, King Orgasmus One]
+Was? Yeah, jetzt geht's los! Wir kicken euch. Ah, wir kicken euch. Hier ist der Beweis, man, ah. Ah, yes! Wir zerfetzen euch. Boah! Ey, wir kicken euch und ficken euch und kicken euch und ficken euch. 030!</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,9 +1621,77 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Intro: King Orgasmus One]Ey, Bushido, na? Ey, ik wollt ma' 'n paar Nutten bestell'n, wa?Nach'm rappen, wa, ist doch ganz cool so 'n bisschen Session, wa, 'n bisschen Fickereien. Ah, ik ruf ma' gleich an hier. Ja, hallo? Ik bin's, Olejasmus, Orgasmus. Wie geht's denn so? Jo, kommt 'a nachher rum oder wat? Ja, bringst du Nancy mit? Ja, anal, anal! Gut! Ja, [?]. Gut, mach'se! Allet klar, wa? Bis nachher. Alles klar, jut! Hab'n wa, die Kohle. Tschau![Part 1: Bushido: King Orgasmus One]Yes, yes, Bushido, auf die Knie, jetzt ist SchlussRepresente die Conscience, Kollabo, OrgasmusWestberlin, unsre Stadt, knocken jeden aus'm RingWir scheißen auf alles, Hip-Hop ist unser DingWas geht? Undercover, wir chillen, sind auf der JagdNehmen euch ins Visier, ficken alle jeden TagKeine Chance, Bushido, komme, sehe, SiegZusammen mit Orgasmus ziehen wir in den KriegJeder Wixxer will nach oben und das um jeden PreisAlter, ihr habt es drauf? Junge, wo bleibt der Beweis?Kacke labern ist nicht schwer, jeder einzelne ist schwulBushido, Orgasmus, ey, man, wir brennenGebrochenes Herz - böses Herz, Orgasmus ist auf Nutten-JagdUnd du bekommst den Schmerz in deine Fotze, du NutteUnd ich reib' dein Arschloch mit meiner gleitenden Spucke undFucke deinen Arsch, aber Moment, jetzt wird geharztBass-Crew, 030, BushidoFotze, Orgi fickt PopoFakt sind meine Argumente und ich kauf mir [?], jungeTalente, die ich später ficken werdeAber ich hab 'nen Finger in der Muschi und meine Zunge in der ArschkerbeOrgasmus und Dark Mindz Clique, wir sind auf Jagd und du wirst gefickt
-[Hook: King Orgasmus One]Ich bin auf Jagd, du bist auf Jagd (he-he-he-he-he-he-he-he)Orgasmus, Bushido (Orgasmus)Wir sind auf Jagd, du bist auf Jagd (auf der Jagd)Ich bin auf Jagd, Orgasmus, BushidoWir sind auf Jagd, du bist auf Jagd (he-he-he-he-he-he-he-he)Ich bin auf Jagd, Orgasmus, BushidoAh, auf der Jagd[Part 2: Bushido, King Orgasmus One]Wissen ist Macht, leider wisst ihr viel zu wenigAlso brauch ich euch nicht fürchten, überlegenLehn' ich mich zurück, lass euch kommen, bleibe dabei ganz entspanntMeine Beats sind Soldaten, ich der KommandantFühre sie in die Schlacht gegen die, die nicht begreifenSich auf's Wesentliche zu konzentrierenAlter, hört euch mal zu, eure Tracks sind für'n ArschJap, jetzt geb ich euch Zunder, mein Beat biss euch im ArschKein Pardon, ganz egal, wer immer du auch bistEy, ich fresse dich wie Pacman, auch als SolistMan, ich brauch keine Verstärkung, denn mein Ego reicht für jedenRebelliere wie [?], Bushido, deswegen bin ich gefürchtetRappe, um es euch zu zeigenTreibe Faker in den Wahnsinn, bring die Schwätzer zum schweigenUnantastbar, in keinster Weise zu schwächenEy, ich werd' kommen, Bushido, werd' eure Knochen brechenBeginner [?] Nutten sind in der Enge und meine Beule in der Hose zieht sich in die LängeIch verschenke Big One und fülle deine FotzeAtze, bleib locker, hier ist Orgasmus, der BonzeIch suche Hure und brauch keinen Kontakt, weil ich besitzeNutten aller Art [?] geh ich auf die Jagd, um noch mehr Huren zu besitzenHabe ich was gefangen, werd' ich dir ins Gesicht spritzenFotze, Fotze, FotzeDu dumme, dumme FotzeFotze, FotzeDu dumme, dumme Fotze, Nutte, Nutte, Fotze
-[Hook: King Orgasmus One]Ich bin auf Jagd, du bist auf Jagd, wir sind auf JagdBushido, OrgasmusWir sind auf Jagd, wir sind auf JagdOrgasmus, BushidoIch bin auf Jagd, du bist auf Jagd, wir sind auf JagdBushido, OrgasmusIch bin auf Jagd, du bist auf Jagd, wir sind auf JagdOrgasmus, Bushido[Outro: King Orgasmus One]So, Bushido, die Arbeit ist getan, jetzt geht's ran an die Arsch-Buletten. Paar sind schon hinten im Zimmer, sind schon ganz schön feucht. Jetzt machen wa' richtig Anal-Session, wa? Jo, [?] Arsch, Junge, Junge! Dann gehen noch Grüße raus an Vader, Frauenarzt, DMC, Viagra Bob, Basstard, Sperma, Porno Uli, ja, Tanga Lilly, ja und dann noch die ganzen andren Atzen, Bass-Crew</t>
+          <t>[Intro: King Orgasmus One]
+Ey, Bushido, na? Ey, ik wollt ma' 'n paar Nutten bestell'n, wa?Nach'm rappen, wa, ist doch ganz cool so 'n bisschen Session, wa, 'n bisschen Fickereien. Ah, ik ruf ma' gleich an hier. Ja, hallo? Ik bin's, Olejasmus, Orgasmus. Wie geht's denn so? Jo, kommt 'a nachher rum oder wat? Ja, bringst du Nancy mit? Ja, anal, anal! Gut! Ja, [?]. Gut, mach'se! Allet klar, wa? Bis nachher. Alles klar, jut! Hab'n wa, die Kohle. Tschau!
+[Part 1: Bushido:King Orgasmus One]
+Yes, yes, Bushido, auf die Knie, jetzt ist Schluss
+Represente die Conscience, Kollabo, Orgasmus
+Westberlin, unsre Stadt, knocken jeden aus'm Ring
+Wir scheißen auf alles, Hip-Hop ist unser Ding
+Was geht? Undercover, wir chillen, sind auf der Jagd
+Nehmen euch ins Visier, ficken alle jeden Tag
+Keine Chance, Bushido, komme, sehe, Sieg
+Zusammen mit Orgasmus ziehen wir in den Krieg
+Jeder Wixxer will nach oben und das um jeden Preis
+Alter, ihr habt es drauf? Junge, wo bleibt der Beweis?
+Kacke labern ist nicht schwer, jeder einzelne ist schwul
+Bushido, Orgasmus, ey, man, wir brennen
+Gebrochenes Herz - böses Herz, Orgasmus ist auf Nutten-Jagd
+Und du bekommst den Schmerz in deine Fotze, du Nutte
+Und ich reib' dein Arschloch mit meiner gleitenden Spucke und
+Fucke deinen Arsch, aber Moment, jetzt wird geharzt
+Bass-Crew, 030, Bushido
+Fotze, Orgi fickt Popo
+Fakt sind meine Argumente und ich kauf mir [?], junge
+Talente, die ich später ficken werde
+Aber ich hab 'nen Finger in der Muschi und meine Zunge in der Arschkerbe
+Orgasmus und Dark Mindz Clique, wir sind auf Jagd und du wirst gefickt
+[Hook: King Orgasmus One]
+Ich bin auf Jagd, du bist auf Jagd (he-he-he-he-he-he-he-he)
+Orgasmus, Bushido (Orgasmus)
+Wir sind auf Jagd, du bist auf Jagd (auf der Jagd)
+Ich bin auf Jagd, Orgasmus, Bushido
+Wir sind auf Jagd, du bist auf Jagd (he-he-he-he-he-he-he-he)
+Ich bin auf Jagd, Orgasmus, Bushido
+Ah, auf der Jagd
+[Part 2: Bushido,King Orgasmus One]
+Wissen ist Macht, leider wisst ihr viel zu wenig
+Also brauch ich euch nicht fürchten, überlegen
+Lehn' ich mich zurück, lass euch kommen, bleibe dabei ganz entspannt
+Meine Beats sind Soldaten, ich der Kommandant
+Führe sie in die Schlacht gegen die, die nicht begreifen
+Sich auf's Wesentliche zu konzentrieren
+Alter, hört euch mal zu, eure Tracks sind für'n Arsch
+Jap, jetzt geb ich euch Zunder, mein Beat biss euch im Arsch
+Kein Pardon, ganz egal, wer immer du auch bist
+Ey, ich fresse dich wie Pacman, auch als Solist
+Man, ich brauch keine Verstärkung, denn mein Ego reicht für jeden
+Rebelliere wie [?], Bushido, deswegen bin ich gefürchtet
+Rappe, um es euch zu zeigen
+Treibe Faker in den Wahnsinn, bring die Schwätzer zum schweigen
+Unantastbar, in keinster Weise zu schwächen
+Ey, ich werd' kommen, Bushido, werd' eure Knochen brechen
+Beginner [?] Nutten sind in der Enge und meine Beule in der Hose zieht sich in die Länge
+Ich verschenke Big One und fülle deine Fotze
+Atze, bleib locker, hier ist Orgasmus, der Bonze
+Ich suche Hure und brauch keinen Kontakt, weil ich besitze
+Nutten aller Art [?] geh ich auf die Jagd, um noch mehr Huren zu besitzen
+Habe ich was gefangen, werd' ich dir ins Gesicht spritzen
+Fotze, Fotze, Fotze
+Du dumme, dumme Fotze
+Fotze, Fotze
+Du dumme, dumme Fotze, Nutte, Nutte, Fotze
+[Hook: King Orgasmus One]
+Ich bin auf Jagd, du bist auf Jagd, wir sind auf Jagd
+Bushido, Orgasmus
+Wir sind auf Jagd, wir sind auf Jagd
+Orgasmus, Bushido
+Ich bin auf Jagd, du bist auf Jagd, wir sind auf Jagd
+Bushido, Orgasmus
+Ich bin auf Jagd, du bist auf Jagd, wir sind auf Jagd
+Orgasmus, Bushido
+[Outro: King Orgasmus One]
+So, Bushido, die Arbeit ist getan, jetzt geht's ran an die Arsch-Buletten. Paar sind schon hinten im Zimmer, sind schon ganz schön feucht. Jetzt machen wa' richtig Anal-Session, wa? Jo, [?] Arsch, Junge, Junge! Dann gehen noch Grüße raus an Vader, Frauenarzt, DMC, Viagra Bob, Basstard, Sperma, Porno Uli, ja, Tanga Lilly, ja und dann noch die ganzen andren Atzen, Bass-Crew</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -972,9 +1733,77 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Intro]Tanga Lili, Bass Crew präsentiert. Bushido, Orgasmus, Gynäkologe. Wer hat den geilsten Bass in Berlin? Yeah, Südberlin. Bushido, Orgasmus und Gynäkologe. Ich hol' meine Weiber und wir wackeln mit dem Arsch. Yeah, Bass Crew hat die geilsten Wholes am Start[Part 1: Orgasmus]Nutten lauft um euer Leben, Orgasmus wird euch Puller gebenMein big one, one, one, big one, big oneFickt euch. Fotzen sind feuchtUnd wollen gefickt werdenIch mache zwanzig Stellungen in fünf Minuten und ihr könnt noch lernenSeht her, wie die Ficker sich vermehrenOrgasmus, Bushido und FrauenarztWir ficken beim Rappen und das macht SpaßOrgasmus [?] Fotze und denkt Arsch [?] denn leider setzt sich auf seinen Kopf und ich spritz wie vom FassHier kommt Bass Bass CrewIch rappe tödlich und du wirst zerstört wie von VoodooZauber und Magie, ich bin OrgiUnd ficke die und die und die und dieIch kann sie nicht mehr zählen, weil ich alle hatteIch bin Orgasmus und immer auf LatteAm liebsten seh' ich Nutten mit Tanga gebückt und breitbeinig nach hinten gedrehtJa, dann wird der Arsch von Nutten erst QualitätMein Puller steht als Trophäe im MuseumEr wurde gestohlen und ich kriege eine EntschädigungUnd erfinde eine BelohnungDerzeit mach ich bei Nutten eine ArschbohrungIch habe einen Hoden bis zum Boden und mein Puller in der UllaNutten nehmen big one als Lutscher und Orgi Hasch als AufpuscherOrgasmus und Bushido und Frauenarzt (hehehe)Atzen, jetzt wird geharzt
-[Part 2: Bushido]Eyo, was geht? Gynäkologe, Orgasmus und BushidoFette Kohle auf Tasche, schieben den Dicken im CasinoAtze wir sind reich, gut aussehend und potentPräsentieren Westberlin, die Stadt, die jeder kenntScheiß auf alles, ey man wir können's uns leistenDas Geld regiert die Welt, also sind wir die RegierungUns're Beats sind Gold wert, eure Tracks sind PlastikBushido und Basscrew, Atze jetzt gibt's ArschfickKein [?] Genosse, ich steh auf BRD10 Jahre ist es her, 89, oh yeahUnd alle Fotzen Hosen runter, unsere Pimmel sind die bestenOb im Osten oder Süden, ich bin der beste[Part 3: Frauenarzt]Prolletik Poetik. Genial GenitalDeine Fotze ist zu schmal, deswegen fick ich dich analBin die erste Wahl, ihr alle zweite KlasseIch verbreite Pornografie an die breite MasseGynäko, Gynäko, aus dem BezirkWo ständig die Sonne scheint - Süd Rap StarAtzen seit ihr mit mir? Dann okay, hört mir zu und schaut mich anFotzen seit ihr geil... (jaa) ...auf michWeil ich, Frauenarzt, bin einmaligÖkos peilen nicht, worum es geht in dieser WeltSex, Sex, Geld, Geld, GeldViele Leute fragen ständig, Günther warum bist du so?Ich sage: Alter, ich bin Gynäkologe, von Beruf aus FrauenarztUnd untersuche Frauen im UnterleibMeine Crew hat den Bass. Öffnet das FassJetzt wird gepafftFotzen tropfen beim Anblick von GünniFrauen wollen ständig. Gimme, gimme, gimme, gimme, gimmeGib mir dies, gib mir das. Frauen-Fotzen NimmersattIch zeig euch meine Eier. Chrome, Silber, Schwarzmatt24 Stunden Praxis. FrauenarztHier wird vertickt, gekifft und immer geharztUnd schon der nächste gebarzt. Orgi gib mal FeuerIch kaufe Hasch billig und verkauf es wieder teuerDas ist mein Style, Bushido programmiert und produziertFickt euch alle. Ich bin Pessimist, RealistRealitätsbedingt, also tanz
-[Outro][?]</t>
+          <t>[Intro]
+Tanga Lili, Bass Crew präsentiert. Bushido, Orgasmus, Gynäkologe. Wer hat den geilsten Bass in Berlin? Yeah, Südberlin. Bushido, Orgasmus und Gynäkologe. Ich hol' meine Weiber und wir wackeln mit dem Arsch. Yeah, Bass Crew hat die geilsten Wholes am Start
+[Part 1: Orgasmus]
+Nutten lauft um euer Leben, Orgasmus wird euch Puller geben
+Mein big one, one, one, big one, big one
+Fickt euch. Fotzen sind feucht
+Und wollen gefickt werden
+Ich mache zwanzig Stellungen in fünf Minuten und ihr könnt noch lernen
+Seht her, wie die Ficker sich vermehren
+Orgasmus, Bushido und Frauenarzt
+Wir ficken beim Rappen und das macht Spaß
+Orgasmus [?] Fotze und denkt Arsch [?] denn leider setzt sich auf seinen Kopf und ich spritz wie vom Fass
+Hier kommt Bass Bass Crew
+Ich rappe tödlich und du wirst zerstört wie von Voodoo
+Zauber und Magie, ich bin Orgi
+Und ficke die und die und die und die
+Ich kann sie nicht mehr zählen, weil ich alle hatte
+Ich bin Orgasmus und immer auf Latte
+Am liebsten seh' ich Nutten mit Tanga gebückt und breitbeinig nach hinten gedreht
+Ja, dann wird der Arsch von Nutten erst Qualität
+Mein Puller steht als Trophäe im Museum
+Er wurde gestohlen und ich kriege eine Entschädigung
+Und erfinde eine Belohnung
+Derzeit mach ich bei Nutten eine Arschbohrung
+Ich habe einen Hoden bis zum Boden und mein Puller in der Ulla
+Nutten nehmen big one als Lutscher und Orgi Hasch als Aufpuscher
+Orgasmus und Bushido und Frauenarzt (hehehe)
+Atzen, jetzt wird geharzt
+[Part 2: Bushido]
+Eyo, was geht? Gynäkologe, Orgasmus und Bushido
+Fette Kohle auf Tasche, schieben den Dicken im Casino
+Atze wir sind reich, gut aussehend und potent
+Präsentieren Westberlin, die Stadt, die jeder kennt
+Scheiß auf alles, ey man wir können's uns leisten
+Das Geld regiert die Welt, also sind wir die Regierung
+Uns're Beats sind Gold wert, eure Tracks sind Plastik
+Bushido und Basscrew, Atze jetzt gibt's Arschfick
+Kein [?] Genosse, ich steh auf BRD
+10 Jahre ist es her, 89, oh yeah
+Und alle Fotzen Hosen runter, unsere Pimmel sind die besten
+Ob im Osten oder Süden, ich bin der beste
+[Part 3: Frauenarzt]
+Prolletik Poetik. Genial Genital
+Deine Fotze ist zu schmal, deswegen fick ich dich anal
+Bin die erste Wahl, ihr alle zweite Klasse
+Ich verbreite Pornografie an die breite Masse
+Gynäko, Gynäko, aus dem Bezirk
+Wo ständig die Sonne scheint - Süd Rap Star
+Atzen seit ihr mit mir? Dann okay, hört mir zu und schaut mich an
+Fotzen seit ihr geil... (jaa) ...auf mich
+Weil ich, Frauenarzt, bin einmalig
+Ökos peilen nicht, worum es geht in dieser Welt
+Sex, Sex, Geld, Geld, Geld
+Viele Leute fragen ständig, Günther warum bist du so?
+Ich sage: Alter, ich bin Gynäkologe, von Beruf aus Frauenarzt
+Und untersuche Frauen im Unterleib
+Meine Crew hat den Bass. Öffnet das Fass
+Jetzt wird gepafft
+Fotzen tropfen beim Anblick von Günni
+Frauen wollen ständig. Gimme, gimme, gimme, gimme, gimme
+Gib mir dies, gib mir das. Frauen-Fotzen Nimmersatt
+Ich zeig euch meine Eier. Chrome, Silber, Schwarzmatt
+24 Stunden Praxis. Frauenarzt
+Hier wird vertickt, gekifft und immer geharzt
+Und schon der nächste gebarzt. Orgi gib mal Feuer
+Ich kaufe Hasch billig und verkauf es wieder teuer
+Das ist mein Style, Bushido programmiert und produziert
+Fickt euch alle. Ich bin Pessimist, Realist
+Realitätsbedingt, also tanz
+[Outro]
+[?]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1016,7 +1845,8 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah! Das war mein Tape jetzt. Yes, yes! Yeah! Bushido, West-Berlin, Darkmindz. [?], Baby! Yeah, [?], die westliche Kammer, Bushido. Yeah, yeah! Vader, Eigenproduktion. Yeah! Fat Beats, bei Mama zu Hause. Was geht ab, man? Yeah, yeah, Baby! Marienfelde, Tempelhof, represent. Yeah, yeah! Also mir gefällt das Tape. Wenn's euch nicht gefällt, könnt ihr euch doch ficken. Hah! Haha, yeah! [?]. Wir scheißen wirklich auf alles. Auf alles! Yes! Haha! Was geht ab? Es gehen noch 'n paar Grüße raus. Yeah! Standard! Erstmal 'n Mic. [?], he. Yes, Baby! [?] Vader. Atze, was geht ab, man? Yeah, yeah! Was geht ab, man? Yeah! Darkmindz, [?], Baby! Fettes Tape, haha. Watch Out! Yes! Dann gehen noch fette Probs an [?], Fabrice. Was geht ab, man? [?]. Yeah! Yeah, yeah! Haha! Stuttgart. Yeah! Es gibt nicht viele Leute, weil ihr seid alle Spastis. Yeah! [?]. Definitiv. Yeah! Auf jeden Fall [?]. Yeah! Meine Atzen, was geht ab, man? Ich scheiß zwar auf die Arbeit, aber (haha) ihr seid trotzdem cool (und Spastis). Yeah! Was geht ab? Hah! Haha! [?] aka [?], haha! Yeah! [?]. Malte, was geht, alter? Ey, was geht ab man? Yeah! Haha![?] aka the Robo-Cop, alter, [?] Kohle, alter. Hehe! [?]. Was geht ab?  Orgasmus! Was geht ab, man? Ansonsten nicht mehr viele, ne? Ah, lass ma' überlegen. Fast gar keine mehr. Gar keine. Egal, wenn ich euch jetzt vergessen habe, dann seit ihr nicht wichtig. [?] Scheiß auf euch! [?]. Ihr seid schwul. Ok, mein Bruder, [?]. Ist zwar schwul, aber egal. Yeah, yeah! [?], was geht? Bass-Crew. Auf jeden Fall an meine Mama. [?] Yeah! Ah! Wenn's euch nicht gefällt, dann beschwert euch bei ihr und fickt euch! Ansonsten, äh, geht alles andere noch klar. Hehe, auf jeden Fall! Ey, [?], was geht ab, [?], alter? Danke für [?] Nummer, wa. Vier, vier, fünf, piep, piep, piep, piep. Haha, alles klar, man! War fett von dir, alter. Wir hör'n uns auf jeden Fall auch, wa? Peace!</t>
+          <t>Yeah, yeah, yeah! Das war mein Tape jetzt. Yes, yes! Yeah! Bushido, West-Berlin, Darkmindz. [?], Baby! Yeah, [?], die westliche Kammer, Bushido. Yeah, yeah! Vader, Eigenproduktion. Yeah! Fat Beats, bei Mama zu Hause. Was geht ab, man? Yeah, yeah, Baby! Marienfelde, Tempelhof, represent. Yeah, yeah! Also mir gefällt das Tape. Wenn's euch nicht gefällt, könnt ihr euch doch ficken. Hah! Haha, yeah! [?]. Wir scheißen wirklich auf alles. Auf alles! Yes! Haha! Was geht ab? Es gehen noch 'n paar Grüße raus. Yeah! Standard! Erstmal 'n Mic. [?], he. Yes, Baby! [?] Vader. Atze, was geht ab, man? Yeah, yeah! Was geht ab, man? Yeah! Darkmindz, [?], Baby! Fettes Tape, haha. Watch Out! Yes! Dann gehen noch fette Probs an [?], Fabrice. Was geht ab, man? [?]. Yeah! Yeah, yeah! Haha! Stuttgart. Yeah! Es gibt nicht viele Leute, weil ihr seid alle Spastis. Yeah! [?]. Definitiv. Yeah! Auf jeden Fall [?]. Yeah! Meine Atzen, was geht ab, man? Ich scheiß zwar auf die Arbeit, aber (haha) ihr seid trotzdem cool (und Spastis). Yeah! Was geht ab? Hah! Haha! [?] aka [?], haha! Yeah! [?]. Malte, was geht, alter? Ey, was geht ab man? Yeah! Haha!
+[?] aka the Robo-Cop, alter, [?] Kohle, alter. Hehe! [?]. Was geht ab? Orgasmus! Was geht ab, man? Ansonsten nicht mehr viele, ne? Ah, lass ma' überlegen. Fast gar keine mehr. Gar keine. Egal, wenn ich euch jetzt vergessen habe, dann seit ihr nicht wichtig. [?] Scheiß auf euch! [?]. Ihr seid schwul. Ok, mein Bruder, [?]. Ist zwar schwul, aber egal. Yeah, yeah! [?], was geht? Bass-Crew. Auf jeden Fall an meine Mama. [?] Yeah! Ah! Wenn's euch nicht gefällt, dann beschwert euch bei ihr und fickt euch! Ansonsten, äh, geht alles andere noch klar. Hehe, auf jeden Fall! Ey, [?], was geht ab, [?], alter? Danke für [?] Nummer, wa. Vier, vier, fünf, piep, piep, piep, piep. Haha, alles klar, man! War fett von dir, alter. Wir hör'n uns auf jeden Fall auch, wa? Peace!</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
